--- a/raw_data/MATIC-USD_4h_process.xlsx
+++ b/raw_data/MATIC-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1.037933349609375</v>
+        <v>0.8658215403556824</v>
       </c>
       <c r="C2">
-        <v>1.04984450340271</v>
+        <v>0.8708832859992981</v>
       </c>
       <c r="D2">
-        <v>1.034607410430908</v>
+        <v>0.8527871370315552</v>
       </c>
       <c r="E2">
-        <v>1.039710998535156</v>
+        <v>0.855841338634491</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28160512</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1.039431571960449</v>
+        <v>0.8559350967407227</v>
       </c>
       <c r="C3">
-        <v>1.059552192687989</v>
+        <v>0.8660610318183899</v>
       </c>
       <c r="D3">
-        <v>1.026710152626038</v>
+        <v>0.8515024781227112</v>
       </c>
       <c r="E3">
-        <v>1.044535279273987</v>
+        <v>0.8553963303565979</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20746048</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1.04476535320282</v>
+        <v>0.8553896546363831</v>
       </c>
       <c r="C4">
-        <v>1.046334266662598</v>
+        <v>0.8624765276908875</v>
       </c>
       <c r="D4">
-        <v>1.010992050170898</v>
+        <v>0.8448650240898132</v>
       </c>
       <c r="E4">
-        <v>1.029965758323669</v>
+        <v>0.8599027991294861</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20355520</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>1.029997944831848</v>
+        <v>0.8599801063537598</v>
       </c>
       <c r="C5">
-        <v>1.067889451980591</v>
+        <v>0.8707605004310608</v>
       </c>
       <c r="D5">
-        <v>1.026326060295105</v>
+        <v>0.8591970205307007</v>
       </c>
       <c r="E5">
-        <v>1.061477780342102</v>
+        <v>0.8613620400428772</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21974336</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.061642169952393</v>
+        <v>0.861255407333374</v>
       </c>
       <c r="C6">
-        <v>1.063605546951294</v>
+        <v>0.8642211556434631</v>
       </c>
       <c r="D6">
-        <v>1.002504587173462</v>
+        <v>0.8514837622642517</v>
       </c>
       <c r="E6">
-        <v>1.009954929351807</v>
+        <v>0.8607292175292969</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4662656</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1.009891629219055</v>
+        <v>0.8607448935508728</v>
       </c>
       <c r="C7">
-        <v>1.014366388320923</v>
+        <v>0.8818060755729675</v>
       </c>
       <c r="D7">
-        <v>0.9928740262985229</v>
+        <v>0.8606560826301575</v>
       </c>
       <c r="E7">
-        <v>1.00743579864502</v>
+        <v>0.881358802318573</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1.007319450378418</v>
+        <v>0.8814190030097961</v>
       </c>
       <c r="C8">
-        <v>1.007319450378418</v>
+        <v>0.887235164642334</v>
       </c>
       <c r="D8">
-        <v>0.9906671047210692</v>
+        <v>0.8712513446807861</v>
       </c>
       <c r="E8">
-        <v>1.003088235855102</v>
+        <v>0.8808992505073547</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1.00343668460846</v>
+        <v>0.8809110522270203</v>
       </c>
       <c r="C9">
-        <v>1.008955597877502</v>
+        <v>0.8914650082588196</v>
       </c>
       <c r="D9">
-        <v>0.9649699926376344</v>
+        <v>0.8808494210243225</v>
       </c>
       <c r="E9">
-        <v>0.9966312646865844</v>
+        <v>0.8834433555603027</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2164928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.9967837929725648</v>
+        <v>0.8833984136581421</v>
       </c>
       <c r="C10">
-        <v>1.002368092536926</v>
+        <v>0.8869208097457886</v>
       </c>
       <c r="D10">
-        <v>0.9826969504356384</v>
+        <v>0.8515815734863281</v>
       </c>
       <c r="E10">
-        <v>0.9826969504356384</v>
+        <v>0.8548321723937988</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>36045952</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.9826123118400574</v>
+        <v>0.8549138307571411</v>
       </c>
       <c r="C11">
-        <v>1.014301419258118</v>
+        <v>0.8637869358062744</v>
       </c>
       <c r="D11">
-        <v>0.9813548922538756</v>
+        <v>0.8525893688201904</v>
       </c>
       <c r="E11">
-        <v>1.013494491577148</v>
+        <v>0.8595280647277832</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5664512</v>
       </c>
       <c r="L11">
-        <v>45.78790696153126</v>
+        <v>45.88262281775435</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1.01352334022522</v>
+        <v>0.859468936920166</v>
       </c>
       <c r="C12">
-        <v>1.017197847366333</v>
+        <v>0.8640638589859009</v>
       </c>
       <c r="D12">
-        <v>0.9805946350097656</v>
+        <v>0.8477811217308044</v>
       </c>
       <c r="E12">
-        <v>0.9809743762016296</v>
+        <v>0.8479084968566895</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>13597536</v>
       </c>
       <c r="L12">
-        <v>33.98276077300167</v>
+        <v>36.15105889114641</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.9809669256210328</v>
+        <v>0.8479493856430054</v>
       </c>
       <c r="C13">
-        <v>0.9839083552360536</v>
+        <v>0.8506224155426025</v>
       </c>
       <c r="D13">
-        <v>0.9608561992645264</v>
+        <v>0.8317251205444336</v>
       </c>
       <c r="E13">
-        <v>0.98293799161911</v>
+        <v>0.8336736559867859</v>
       </c>
       <c r="F13">
-        <v>6483200</v>
+        <v>16011520</v>
       </c>
       <c r="L13">
-        <v>35.11906482907245</v>
+        <v>27.97389785182252</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1266,25 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.9827765822410583</v>
+        <v>0.8347095251083374</v>
       </c>
       <c r="C14">
-        <v>0.9827765822410583</v>
+        <v>0.838939368724823</v>
       </c>
       <c r="D14">
-        <v>0.9536556005477904</v>
+        <v>0.8265690207481384</v>
       </c>
       <c r="E14">
-        <v>0.9733578562736512</v>
+        <v>0.8348593711853027</v>
       </c>
       <c r="F14">
-        <v>19326976</v>
+        <v>11660064</v>
       </c>
       <c r="L14">
-        <v>32.08766611470917</v>
+        <v>29.46890222861536</v>
+      </c>
+      <c r="N14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1292,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.9733613729476928</v>
+        <v>0.8348054885864258</v>
       </c>
       <c r="C15">
-        <v>0.9873656034469604</v>
+        <v>0.8519669771194458</v>
       </c>
       <c r="D15">
-        <v>0.9683892726898192</v>
+        <v>0.8343870639801025</v>
       </c>
       <c r="E15">
-        <v>0.9732702374458312</v>
+        <v>0.8519669771194458</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3422496</v>
       </c>
       <c r="L15">
-        <v>32.05919325912092</v>
+        <v>47.24319751507314</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1315,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.9732558131217957</v>
+        <v>0.8522286415100098</v>
       </c>
       <c r="C16">
-        <v>0.9798908829689026</v>
+        <v>0.8531029224395752</v>
       </c>
       <c r="D16">
-        <v>0.970011293888092</v>
+        <v>0.8396129608154297</v>
       </c>
       <c r="E16">
-        <v>0.970011293888092</v>
+        <v>0.8404266238212585</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30.91145141496358</v>
+        <v>39.65861501040824</v>
       </c>
       <c r="M16">
-        <v>31.80884039099308</v>
+        <v>40.69446263638438</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1335,25 +1341,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.970008373260498</v>
+        <v>0.8403010368347168</v>
       </c>
       <c r="C17">
-        <v>0.970670521259308</v>
+        <v>0.840939998626709</v>
       </c>
       <c r="D17">
-        <v>0.947612762451172</v>
+        <v>0.8009833097457886</v>
       </c>
       <c r="E17">
-        <v>0.958176851272583</v>
+        <v>0.8106151223182678</v>
       </c>
       <c r="F17">
-        <v>1652928</v>
+        <v>55402080</v>
       </c>
       <c r="L17">
-        <v>26.96730788347324</v>
+        <v>27.04188863620242</v>
       </c>
       <c r="M17">
-        <v>28.78707040086085</v>
+        <v>29.57526491687398</v>
       </c>
       <c r="N17" t="s">
         <v>195</v>
@@ -1364,25 +1370,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.9580586552619934</v>
+        <v>0.8108459711074829</v>
       </c>
       <c r="C18">
-        <v>0.9702438712120056</v>
+        <v>0.8264603018760681</v>
       </c>
       <c r="D18">
-        <v>0.9547929763793944</v>
+        <v>0.8076848387718201</v>
       </c>
       <c r="E18">
-        <v>0.9702438712120056</v>
+        <v>0.8247126936912537</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.29195371041246</v>
+        <v>37.60250507531006</v>
       </c>
       <c r="M18">
-        <v>35.51398637792608</v>
+        <v>38.17782213499604</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1390,25 +1396,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.9704744815826416</v>
+        <v>0.8247717618942261</v>
       </c>
       <c r="C19">
-        <v>0.9769466519355774</v>
+        <v>0.8338533043861389</v>
       </c>
       <c r="D19">
-        <v>0.9634924530982972</v>
+        <v>0.8166142702102661</v>
       </c>
       <c r="E19">
-        <v>0.9649285078048706</v>
+        <v>0.8338336944580078</v>
       </c>
       <c r="F19">
-        <v>791200</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>34.13238453718395</v>
+        <v>43.54995372776779</v>
       </c>
       <c r="M19">
-        <v>33.99085671262478</v>
+        <v>43.02685796064722</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1416,28 +1422,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.96490740776062</v>
+        <v>0.8338167667388916</v>
       </c>
       <c r="C20">
-        <v>0.9659078121185304</v>
+        <v>0.8379625082015991</v>
       </c>
       <c r="D20">
-        <v>0.953195571899414</v>
+        <v>0.8296259641647339</v>
       </c>
       <c r="E20">
-        <v>0.953195571899414</v>
+        <v>0.8314318656921387</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3007968</v>
       </c>
       <c r="L20">
-        <v>29.73802883669508</v>
+        <v>42.35401158459867</v>
       </c>
       <c r="M20">
-        <v>30.8460403222486</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
+        <v>42.09063180419085</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1445,31 +1448,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.9529745578765868</v>
+        <v>0.8314515948295593</v>
       </c>
       <c r="C21">
-        <v>0.9641955494880676</v>
+        <v>0.8321124911308289</v>
       </c>
       <c r="D21">
-        <v>0.9462705254554749</v>
+        <v>0.821381688117981</v>
       </c>
       <c r="E21">
-        <v>0.950018048286438</v>
+        <v>0.8282042145729065</v>
       </c>
       <c r="F21">
-        <v>1869536</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.993305304646492</v>
+        <v>0.8495463043451309</v>
       </c>
       <c r="L21">
-        <v>28.61558202020015</v>
+        <v>40.66571795404417</v>
       </c>
       <c r="M21">
-        <v>30.03557233147663</v>
-      </c>
-      <c r="N21" t="s">
-        <v>195</v>
+        <v>40.80566811019545</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1477,31 +1477,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.9501150250434875</v>
+        <v>0.8282904028892517</v>
       </c>
       <c r="C22">
-        <v>0.9731759428977966</v>
+        <v>0.8390868306159973</v>
       </c>
       <c r="D22">
-        <v>0.9501150250434875</v>
+        <v>0.8274382352828979</v>
       </c>
       <c r="E22">
-        <v>0.9692721366882324</v>
+        <v>0.8352315425872803</v>
       </c>
       <c r="F22">
-        <v>5204224</v>
+        <v>2847008</v>
       </c>
       <c r="G22">
-        <v>0.9921608680770511</v>
+        <v>0.8488646490233285</v>
       </c>
       <c r="H22">
-        <v>0.9897833615541458</v>
+        <v>0.8485158145427704</v>
       </c>
       <c r="L22">
-        <v>43.22405075977552</v>
+        <v>45.94356715343908</v>
       </c>
       <c r="M22">
-        <v>40.27572013832923</v>
+        <v>44.75978153915289</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1509,31 +1509,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.9694812893867492</v>
+        <v>0.8352618217468262</v>
       </c>
       <c r="C23">
-        <v>0.9792782664299012</v>
+        <v>0.8431475758552551</v>
       </c>
       <c r="D23">
-        <v>0.9661638736724854</v>
+        <v>0.8351434469223022</v>
       </c>
       <c r="E23">
-        <v>0.9731153249740599</v>
+        <v>0.8388115763664246</v>
       </c>
       <c r="F23">
-        <v>794816</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9904294550676882</v>
+        <v>0.8479507333272462</v>
       </c>
       <c r="H23">
-        <v>0.9862123638391495</v>
+        <v>0.8476865768432618</v>
       </c>
       <c r="L23">
-        <v>45.71849816063186</v>
+        <v>48.56569339158629</v>
       </c>
       <c r="M23">
-        <v>42.09743388087349</v>
+        <v>46.71265743538564</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1541,31 +1541,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.973069429397583</v>
+        <v>0.8389499187469482</v>
       </c>
       <c r="C24">
-        <v>1.001649737358093</v>
+        <v>0.8434427976608276</v>
       </c>
       <c r="D24">
-        <v>0.970931589603424</v>
+        <v>0.8275351524353027</v>
       </c>
       <c r="E24">
-        <v>0.9981529712677002</v>
+        <v>0.8319491744041443</v>
       </c>
       <c r="F24">
-        <v>81499968</v>
+        <v>2495168</v>
       </c>
       <c r="G24">
-        <v>0.9911315929040528</v>
+        <v>0.8464960461524188</v>
       </c>
       <c r="H24">
-        <v>0.984621724486351</v>
+        <v>0.8462888956069946</v>
       </c>
       <c r="L24">
-        <v>58.94005670272529</v>
+        <v>43.96661517073552</v>
       </c>
       <c r="M24">
-        <v>52.30434922523273</v>
+        <v>43.53551519963685</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1573,31 +1573,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.9988734722137452</v>
+        <v>0.8319327235221863</v>
       </c>
       <c r="C25">
-        <v>1.010257244110107</v>
+        <v>0.8435434103012085</v>
       </c>
       <c r="D25">
-        <v>0.9974287152290344</v>
+        <v>0.8292443156242371</v>
       </c>
       <c r="E25">
-        <v>1.007166504859924</v>
+        <v>0.8319729566574097</v>
       </c>
       <c r="F25">
-        <v>34895168</v>
+        <v>6205216</v>
       </c>
       <c r="G25">
-        <v>0.9925893121727684</v>
+        <v>0.8451757652892361</v>
       </c>
       <c r="H25">
-        <v>0.9819061607122421</v>
+        <v>0.8448194414377213</v>
       </c>
       <c r="L25">
-        <v>62.6268176719649</v>
+        <v>43.98729548404729</v>
       </c>
       <c r="M25">
-        <v>55.35541622812824</v>
+        <v>43.54984462435156</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1605,31 +1605,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1.007035613059998</v>
+        <v>0.8319306373596191</v>
       </c>
       <c r="C26">
-        <v>1.007035613059998</v>
+        <v>0.8342052698135376</v>
       </c>
       <c r="D26">
-        <v>0.9670963883399964</v>
+        <v>0.8243628740310669</v>
       </c>
       <c r="E26">
-        <v>0.9704302549362184</v>
+        <v>0.8327335715293884</v>
       </c>
       <c r="F26">
-        <v>37537568</v>
+        <v>3984352</v>
       </c>
       <c r="G26">
-        <v>0.990574852423991</v>
+        <v>0.8440446567656136</v>
       </c>
       <c r="H26">
-        <v>0.9799299269914628</v>
+        <v>0.8434196591377259</v>
       </c>
       <c r="L26">
-        <v>44.36275447653075</v>
+        <v>44.72135618053262</v>
       </c>
       <c r="M26">
-        <v>43.22027325817106</v>
+        <v>44.03898717922786</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1637,31 +1637,34 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.9706287384033204</v>
+        <v>0.8327440619468689</v>
       </c>
       <c r="C27">
-        <v>0.9913031458854676</v>
+        <v>0.8332133293151855</v>
       </c>
       <c r="D27">
-        <v>0.9683416485786438</v>
+        <v>0.797690212726593</v>
       </c>
       <c r="E27">
-        <v>0.969545304775238</v>
+        <v>0.8006728887557983</v>
       </c>
       <c r="F27">
-        <v>16414304</v>
+        <v>31912416</v>
       </c>
       <c r="G27">
-        <v>0.9886630753650134</v>
+        <v>0.8401017687647213</v>
       </c>
       <c r="H27">
-        <v>0.9780354022979736</v>
+        <v>0.8393853634595871</v>
       </c>
       <c r="L27">
-        <v>44.01488752790463</v>
+        <v>27.58109562554256</v>
       </c>
       <c r="M27">
-        <v>42.97586376753009</v>
+        <v>31.60688358333509</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1669,31 +1672,34 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.9696056246757508</v>
+        <v>0.8008039593696594</v>
       </c>
       <c r="C28">
-        <v>0.971618354320526</v>
+        <v>0.8032948970794678</v>
       </c>
       <c r="D28">
-        <v>0.9598086476325988</v>
+        <v>0.7464235424995422</v>
       </c>
       <c r="E28">
-        <v>0.9666873216629028</v>
+        <v>0.7600571513175964</v>
       </c>
       <c r="F28">
-        <v>9501984</v>
+        <v>114264832</v>
       </c>
       <c r="G28">
-        <v>0.9866652795739124</v>
+        <v>0.8328249853604373</v>
       </c>
       <c r="H28">
-        <v>0.9762153565883637</v>
+        <v>0.8333432585000992</v>
       </c>
       <c r="L28">
-        <v>42.79565180825832</v>
+        <v>17.83762642074468</v>
       </c>
       <c r="M28">
-        <v>42.14692587988291</v>
+        <v>22.81862205536207</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1701,31 +1707,34 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.9667303562164308</v>
+        <v>0.7601774930953979</v>
       </c>
       <c r="C29">
-        <v>0.9914403557777404</v>
+        <v>0.7876086235046387</v>
       </c>
       <c r="D29">
-        <v>0.9667303562164308</v>
+        <v>0.7589012980461121</v>
       </c>
       <c r="E29">
-        <v>0.9890539646148682</v>
+        <v>0.7770671844482422</v>
       </c>
       <c r="F29">
-        <v>12715488</v>
+        <v>45704480</v>
       </c>
       <c r="G29">
-        <v>0.9868824327594538</v>
+        <v>0.8277560943684195</v>
       </c>
       <c r="H29">
-        <v>0.9758364915847778</v>
+        <v>0.8280244499444962</v>
       </c>
       <c r="L29">
-        <v>54.01147658931153</v>
+        <v>29.56160215947604</v>
       </c>
       <c r="M29">
-        <v>50.23663563297107</v>
+        <v>31.41905406140888</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1733,31 +1742,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.9888893961906432</v>
+        <v>0.7770843505859375</v>
       </c>
       <c r="C30">
-        <v>0.9969650506973268</v>
+        <v>0.7843480110168457</v>
       </c>
       <c r="D30">
-        <v>0.9827713966369628</v>
+        <v>0.7710409164428711</v>
       </c>
       <c r="E30">
-        <v>0.9956808686256408</v>
+        <v>0.7843480110168457</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>14291520</v>
       </c>
       <c r="G30">
-        <v>0.9876822905654706</v>
+        <v>0.8238099049728218</v>
       </c>
       <c r="H30">
-        <v>0.976485687494278</v>
+        <v>0.8245002418756485</v>
       </c>
       <c r="L30">
-        <v>56.83259011398256</v>
+        <v>34.09035827975877</v>
       </c>
       <c r="M30">
-        <v>52.36209923851791</v>
+        <v>34.76961771172641</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1765,34 +1774,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.9956482648849488</v>
+        <v>0.7844957709312439</v>
       </c>
       <c r="C31">
-        <v>1.00518000125885</v>
+        <v>0.8047268390655518</v>
       </c>
       <c r="D31">
-        <v>0.9871307611465454</v>
+        <v>0.7844957709312439</v>
       </c>
       <c r="E31">
-        <v>1.00518000125885</v>
+        <v>0.8034850358963013</v>
       </c>
       <c r="F31">
-        <v>6134496</v>
+        <v>56481664</v>
       </c>
       <c r="G31">
-        <v>0.989272991537596</v>
+        <v>0.821962189602229</v>
       </c>
       <c r="H31">
-        <v>0.976069962978363</v>
+        <v>0.8216980904340744</v>
       </c>
       <c r="I31">
-        <v>0.9903463582197826</v>
+        <v>0.8362418393294017</v>
       </c>
       <c r="L31">
-        <v>60.71843673378506</v>
+        <v>44.61908491855796</v>
       </c>
       <c r="M31">
-        <v>55.30872281792551</v>
+        <v>42.69444078639254</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1800,2897 +1809,2873 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>1.005278825759888</v>
+        <v>0.8035376071929932</v>
       </c>
       <c r="C32">
-        <v>1.016831636428833</v>
+        <v>0.8361914157867432</v>
       </c>
       <c r="D32">
-        <v>0.997833013534546</v>
+        <v>0.8014088869094849</v>
       </c>
       <c r="E32">
-        <v>1.015583515167236</v>
+        <v>0.8348261713981628</v>
       </c>
       <c r="F32">
-        <v>11391040</v>
+        <v>71807872</v>
       </c>
       <c r="G32">
-        <v>0.9916648573221087</v>
+        <v>0.8231316424927685</v>
       </c>
       <c r="H32">
-        <v>0.9778004199266433</v>
+        <v>0.821043974161148</v>
       </c>
       <c r="I32">
-        <v>0.9895421087741851</v>
+        <v>0.8355413337548574</v>
       </c>
       <c r="L32">
-        <v>64.64025455825117</v>
+        <v>57.21234589575555</v>
       </c>
       <c r="M32">
-        <v>58.34746768536791</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>52.80663851003572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>1.015718340873718</v>
+        <v>0.8348420858383179</v>
       </c>
       <c r="C33">
-        <v>1.021804332733154</v>
+        <v>0.84307861328125</v>
       </c>
       <c r="D33">
-        <v>1.009065389633179</v>
+        <v>0.8285537362098694</v>
       </c>
       <c r="E33">
-        <v>1.020144104957581</v>
+        <v>0.8426653742790222</v>
       </c>
       <c r="F33">
-        <v>26550624</v>
+        <v>29696000</v>
       </c>
       <c r="G33">
-        <v>0.9942538798344244</v>
+        <v>0.8249074362915189</v>
       </c>
       <c r="H33">
-        <v>0.9796607255935669</v>
+        <v>0.8214935600757599</v>
       </c>
       <c r="I33">
-        <v>0.9887290696303049</v>
+        <v>0.8351169685522716</v>
       </c>
       <c r="L33">
-        <v>66.29956498103238</v>
+        <v>59.78552590804673</v>
       </c>
       <c r="M33">
-        <v>59.64290675926641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>54.94806940840691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>1.020208120346069</v>
+        <v>0.842612087726593</v>
       </c>
       <c r="C34">
-        <v>1.021445989608765</v>
+        <v>0.8441055417060852</v>
       </c>
       <c r="D34">
-        <v>1.010954022407532</v>
+        <v>0.8167364597320557</v>
       </c>
       <c r="E34">
-        <v>1.012566566467285</v>
+        <v>0.8175075054168701</v>
       </c>
       <c r="F34">
-        <v>11454144</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.9959186695283208</v>
+        <v>0.8242347153029145</v>
       </c>
       <c r="H34">
-        <v>0.9816211611032486</v>
+        <v>0.8206259667873382</v>
       </c>
       <c r="I34">
-        <v>0.9881490965684255</v>
+        <v>0.8337037920951843</v>
       </c>
       <c r="L34">
-        <v>60.95301799180456</v>
+        <v>49.12035827591401</v>
       </c>
       <c r="M34">
-        <v>56.49873590728308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>47.49911526302126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>1.012469053268433</v>
+        <v>0.8174787163734436</v>
       </c>
       <c r="C35">
-        <v>1.032245874404907</v>
+        <v>0.8308605551719666</v>
       </c>
       <c r="D35">
-        <v>1.011286497116089</v>
+        <v>0.8173023462295532</v>
       </c>
       <c r="E35">
-        <v>1.013801693916321</v>
+        <v>0.8213351964950562</v>
       </c>
       <c r="F35">
-        <v>46612000</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.997544399018139</v>
+        <v>0.8239711226840183</v>
       </c>
       <c r="H35">
-        <v>0.9836477339267731</v>
+        <v>0.8190943777561188</v>
       </c>
       <c r="I35">
-        <v>0.9865598936875661</v>
+        <v>0.8323695639769236</v>
       </c>
       <c r="L35">
-        <v>61.52201653920612</v>
+        <v>50.62789812865402</v>
       </c>
       <c r="M35">
-        <v>56.89759285990219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>48.63993272692472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>1.013785719871521</v>
+        <v>0.8212902545928955</v>
       </c>
       <c r="C36">
-        <v>1.013785719871521</v>
+        <v>0.824974536895752</v>
       </c>
       <c r="D36">
-        <v>0.9783526062965392</v>
+        <v>0.8049978613853455</v>
       </c>
       <c r="E36">
-        <v>0.9852717518806458</v>
+        <v>0.8119702935218811</v>
       </c>
       <c r="F36">
-        <v>52267936</v>
+        <v>6352384</v>
       </c>
       <c r="G36">
-        <v>0.9964287038238213</v>
+        <v>0.8228801382147332</v>
       </c>
       <c r="H36">
-        <v>0.9844107568264008</v>
+        <v>0.8176715612411499</v>
       </c>
       <c r="I36">
-        <v>0.9857371211051941</v>
+        <v>0.8307442665100098</v>
       </c>
       <c r="L36">
-        <v>44.62405391128264</v>
+        <v>46.8103414714243</v>
       </c>
       <c r="M36">
-        <v>46.33048906098894</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>46.00594022023026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.9852812886238098</v>
+        <v>0.8121668100357056</v>
       </c>
       <c r="C37">
-        <v>0.9872769713401794</v>
+        <v>0.8146865367889404</v>
       </c>
       <c r="D37">
-        <v>0.9734897613525392</v>
+        <v>0.7866756916046143</v>
       </c>
       <c r="E37">
-        <v>0.9742938280105592</v>
+        <v>0.7938408255577087</v>
       </c>
       <c r="F37">
-        <v>4912256</v>
+        <v>26719584</v>
       </c>
       <c r="G37">
-        <v>0.9944164423862519</v>
+        <v>0.8202402007004582</v>
       </c>
       <c r="H37">
-        <v>0.9852166056632996</v>
+        <v>0.8168328464031219</v>
       </c>
       <c r="I37">
-        <v>0.9846323887507121</v>
+        <v>0.827827000617981</v>
       </c>
       <c r="L37">
-        <v>39.88213590614058</v>
+        <v>40.2074204240736</v>
       </c>
       <c r="M37">
-        <v>43.01968616256804</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>41.33884783193115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.9743494987487792</v>
+        <v>0.7936835289001465</v>
       </c>
       <c r="C38">
-        <v>0.9794487953186036</v>
+        <v>0.8053929805755615</v>
       </c>
       <c r="D38">
-        <v>0.967081606388092</v>
+        <v>0.7850297093391418</v>
       </c>
       <c r="E38">
-        <v>0.9697227478027344</v>
+        <v>0.7965763211250305</v>
       </c>
       <c r="F38">
-        <v>8167040</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.9921715610604775</v>
+        <v>0.8180889389208739</v>
       </c>
       <c r="H38">
-        <v>0.985190549492836</v>
+        <v>0.8154260277748108</v>
       </c>
       <c r="I38">
-        <v>0.9835202058156332</v>
+        <v>0.8250162363052368</v>
       </c>
       <c r="L38">
-        <v>37.99102425400221</v>
+        <v>41.60561892873342</v>
       </c>
       <c r="M38">
-        <v>41.68395615379612</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>42.29014910738385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.969739317893982</v>
+        <v>0.7965320348739624</v>
       </c>
       <c r="C39">
-        <v>0.9861653447151184</v>
+        <v>0.8137451410293579</v>
       </c>
       <c r="D39">
-        <v>0.969739317893982</v>
+        <v>0.7838624715805054</v>
       </c>
       <c r="E39">
-        <v>0.9781678318977356</v>
+        <v>0.8059970140457153</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>115913408</v>
       </c>
       <c r="G39">
-        <v>0.9908984947729556</v>
+        <v>0.8169896730231322</v>
       </c>
       <c r="H39">
-        <v>0.9858525156974792</v>
+        <v>0.8140341937541962</v>
       </c>
       <c r="I39">
-        <v>0.9829047580560049</v>
+        <v>0.8224346915880839</v>
       </c>
       <c r="L39">
-        <v>43.55402828275096</v>
+        <v>46.45657197056338</v>
       </c>
       <c r="M39">
-        <v>45.07689731603714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>45.564187127692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.978202223777771</v>
+        <v>0.8061506748199463</v>
       </c>
       <c r="C40">
-        <v>0.9874111413955688</v>
+        <v>0.8244208097457886</v>
       </c>
       <c r="D40">
-        <v>0.9775232076644896</v>
+        <v>0.8049792647361755</v>
       </c>
       <c r="E40">
-        <v>0.9778591990470886</v>
+        <v>0.8148328065872192</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>11453696</v>
       </c>
       <c r="G40">
-        <v>0.9897131042524222</v>
+        <v>0.816793594256231</v>
       </c>
       <c r="H40">
-        <v>0.9870856970548629</v>
+        <v>0.8132042407989502</v>
       </c>
       <c r="I40">
-        <v>0.9827434996763865</v>
+        <v>0.8211013793945312</v>
       </c>
       <c r="L40">
-        <v>43.39397119630556</v>
+        <v>50.77163010648083</v>
       </c>
       <c r="M40">
-        <v>44.97391283058319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>48.51448697578805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.9778475165367126</v>
+        <v>0.8147574663162231</v>
       </c>
       <c r="C41">
-        <v>0.9868612289428712</v>
+        <v>0.8290883898735046</v>
       </c>
       <c r="D41">
-        <v>0.9425922036170959</v>
+        <v>0.814629077911377</v>
       </c>
       <c r="E41">
-        <v>0.9425922036170959</v>
+        <v>0.8202482461929321</v>
       </c>
       <c r="F41">
-        <v>52562208</v>
+        <v>7212416</v>
       </c>
       <c r="G41">
-        <v>0.985429386012847</v>
+        <v>0.8171076535232038</v>
       </c>
       <c r="H41">
-        <v>0.9867144048213958</v>
+        <v>0.8128064423799515</v>
       </c>
       <c r="I41">
-        <v>0.9803800900777181</v>
+        <v>0.8197920521100363</v>
       </c>
       <c r="L41">
-        <v>29.47125343668077</v>
+        <v>53.36312665044532</v>
       </c>
       <c r="M41">
-        <v>35.10449540974447</v>
-      </c>
-      <c r="N41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>50.29266332065865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.9426317811012268</v>
+        <v>0.8200867176055908</v>
       </c>
       <c r="C42">
-        <v>0.9440654516220092</v>
+        <v>0.8510816097259521</v>
       </c>
       <c r="D42">
-        <v>0.8381049036979675</v>
+        <v>0.8130913376808167</v>
       </c>
       <c r="E42">
-        <v>0.8650712966918945</v>
+        <v>0.8433697819709778</v>
       </c>
       <c r="F42">
-        <v>361300480</v>
+        <v>51131136</v>
       </c>
       <c r="G42">
-        <v>0.974487741529124</v>
+        <v>0.8194951197457288</v>
       </c>
       <c r="H42">
-        <v>0.9815043628215789</v>
+        <v>0.8132133543491363</v>
       </c>
       <c r="I42">
-        <v>0.9765166540940603</v>
+        <v>0.8196407616138458</v>
       </c>
       <c r="L42">
-        <v>16.43308427924398</v>
+        <v>62.77550673570953</v>
       </c>
       <c r="M42">
-        <v>23.10301954567843</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>57.10456680443788</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.8658215403556824</v>
+        <v>0.8434202075004578</v>
       </c>
       <c r="C43">
-        <v>0.8708832859992981</v>
+        <v>0.8499971032142639</v>
       </c>
       <c r="D43">
-        <v>0.8527871370315552</v>
+        <v>0.8087325096130371</v>
       </c>
       <c r="E43">
-        <v>0.855841338634491</v>
+        <v>0.8499971032142639</v>
       </c>
       <c r="F43">
-        <v>82558912</v>
+        <v>40590336</v>
       </c>
       <c r="G43">
-        <v>0.9637017049023392</v>
+        <v>0.8222680273337774</v>
       </c>
       <c r="H43">
-        <v>0.9756406635046005</v>
+        <v>0.8137726306915283</v>
       </c>
       <c r="I43">
-        <v>0.9722800989945729</v>
+        <v>0.8201848765214285</v>
       </c>
       <c r="L43">
-        <v>15.51376050398053</v>
+        <v>65.05003157989987</v>
       </c>
       <c r="M43">
-        <v>22.13279180897015</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>58.84545863116522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.8559350967407227</v>
+        <v>0.8511151075363159</v>
       </c>
       <c r="C44">
-        <v>0.8660610318183899</v>
+        <v>0.8644557595252991</v>
       </c>
       <c r="D44">
-        <v>0.8515024781227112</v>
+        <v>0.8333429098129272</v>
       </c>
       <c r="E44">
-        <v>0.8553963303565979</v>
+        <v>0.8629335165023804</v>
       </c>
       <c r="F44">
-        <v>20746048</v>
+        <v>60189056</v>
       </c>
       <c r="G44">
-        <v>0.9538557617618172</v>
+        <v>0.8259648899854686</v>
       </c>
       <c r="H44">
-        <v>0.9685028314590454</v>
+        <v>0.8153218477964401</v>
       </c>
       <c r="I44">
-        <v>0.9683480481306712</v>
+        <v>0.821120681365331</v>
       </c>
       <c r="L44">
-        <v>15.46682823442508</v>
+        <v>69.18483418526523</v>
       </c>
       <c r="M44">
-        <v>22.0846360499442</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>62.08052769031463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.8553896546363831</v>
+        <v>0.8626584410667419</v>
       </c>
       <c r="C45">
-        <v>0.8624765276908875</v>
+        <v>0.910910189151764</v>
       </c>
       <c r="D45">
-        <v>0.8448650240898132</v>
+        <v>0.8461793661117554</v>
       </c>
       <c r="E45">
-        <v>0.8599027991294861</v>
+        <v>0.8976465463638306</v>
       </c>
       <c r="F45">
-        <v>20355520</v>
+        <v>110711680</v>
       </c>
       <c r="G45">
-        <v>0.9453145833406962</v>
+        <v>0.8324814042016833</v>
       </c>
       <c r="H45">
-        <v>0.9611396461725235</v>
+        <v>0.8186055272817612</v>
       </c>
       <c r="I45">
-        <v>0.9645691335201263</v>
+        <v>0.8226433336734772</v>
       </c>
       <c r="L45">
-        <v>18.28317895025184</v>
+        <v>77.29404965088688</v>
       </c>
       <c r="M45">
-        <v>23.89057650070574</v>
-      </c>
-      <c r="N45" t="s">
+        <v>69.09977777615599</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.8599801063537598</v>
+        <v>0.898382306098938</v>
       </c>
       <c r="C46">
-        <v>0.8707605004310608</v>
+        <v>0.9270738363265992</v>
       </c>
       <c r="D46">
-        <v>0.8591970205307007</v>
+        <v>0.8966564536094666</v>
       </c>
       <c r="E46">
-        <v>0.8613620400428772</v>
+        <v>0.9068276882171632</v>
       </c>
       <c r="F46">
-        <v>21974336</v>
+        <v>120362496</v>
       </c>
       <c r="G46">
-        <v>0.9376825339499854</v>
+        <v>0.8392401572939997</v>
       </c>
       <c r="H46">
-        <v>0.9556862354278565</v>
+        <v>0.8223102331161499</v>
       </c>
       <c r="I46">
-        <v>0.9609474917252858</v>
+        <v>0.824856702486674</v>
       </c>
       <c r="L46">
-        <v>19.26306368265525</v>
+        <v>78.94285897511742</v>
       </c>
       <c r="M46">
-        <v>24.50081262669402</v>
-      </c>
-      <c r="N46" t="s">
+        <v>70.64739630581256</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.861255407333374</v>
+        <v>0.907386600971222</v>
       </c>
       <c r="C47">
-        <v>0.8642211556434631</v>
+        <v>0.9126192927360536</v>
       </c>
       <c r="D47">
-        <v>0.8514837622642517</v>
+        <v>0.8846240639686584</v>
       </c>
       <c r="E47">
-        <v>0.8607292175292969</v>
+        <v>0.901703953742981</v>
       </c>
       <c r="F47">
-        <v>4662656</v>
+        <v>38797888</v>
       </c>
       <c r="G47">
-        <v>0.9306867779117409</v>
+        <v>0.844918684243907</v>
       </c>
       <c r="H47">
-        <v>0.9502454310655594</v>
+        <v>0.8273617863655091</v>
       </c>
       <c r="I47">
-        <v>0.9576992372671763</v>
+        <v>0.8278929968674977</v>
       </c>
       <c r="L47">
-        <v>19.15102628154602</v>
+        <v>75.50075120323032</v>
       </c>
       <c r="M47">
-        <v>24.40941048334468</v>
-      </c>
-      <c r="N47" t="s">
+        <v>68.58299850263811</v>
+      </c>
+      <c r="O47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.8607448935508728</v>
+        <v>0.9017359018325806</v>
       </c>
       <c r="C48">
-        <v>0.8818060755729675</v>
+        <v>0.9487000107765198</v>
       </c>
       <c r="D48">
-        <v>0.8606560826301575</v>
+        <v>0.9012415409088136</v>
       </c>
       <c r="E48">
-        <v>0.881358802318573</v>
+        <v>0.9471944570541382</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>52580800</v>
       </c>
       <c r="G48">
-        <v>0.9262024164941801</v>
+        <v>0.8542164817721098</v>
       </c>
       <c r="H48">
-        <v>0.9459790050983429</v>
+        <v>0.8367186516523362</v>
       </c>
       <c r="I48">
-        <v>0.9547364016373953</v>
+        <v>0.8319757223129273</v>
       </c>
       <c r="L48">
-        <v>33.36461285357822</v>
+        <v>82.93341978870417</v>
       </c>
       <c r="M48">
-        <v>33.16299841021305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>75.44382895918734</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.8814190030097961</v>
+        <v>0.9473013877868652</v>
       </c>
       <c r="C49">
-        <v>0.887235164642334</v>
+        <v>0.9555069208145142</v>
       </c>
       <c r="D49">
-        <v>0.8712513446807861</v>
+        <v>0.9160775542259216</v>
       </c>
       <c r="E49">
-        <v>0.8808992505073547</v>
+        <v>0.9183698892593384</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>105511104</v>
       </c>
       <c r="G49">
-        <v>0.9220839468590142</v>
+        <v>0.8600486097254942</v>
       </c>
       <c r="H49">
-        <v>0.9405712693929672</v>
+        <v>0.8437837868928909</v>
       </c>
       <c r="I49">
-        <v>0.9519354263941447</v>
+        <v>0.8347935954729716</v>
       </c>
       <c r="L49">
-        <v>33.21825954019489</v>
+        <v>68.18695601672162</v>
       </c>
       <c r="M49">
-        <v>33.07112369703715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>65.65939753969114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.8809110522270203</v>
+        <v>0.9188826680183412</v>
       </c>
       <c r="C50">
-        <v>0.8914650082588196</v>
+        <v>0.9358521103858948</v>
       </c>
       <c r="D50">
-        <v>0.8808494210243225</v>
+        <v>0.9057101011276244</v>
       </c>
       <c r="E50">
-        <v>0.8834433555603027</v>
+        <v>0.9358521103858948</v>
       </c>
       <c r="F50">
-        <v>2164928</v>
+        <v>14087552</v>
       </c>
       <c r="G50">
-        <v>0.9185711658318586</v>
+        <v>0.8669398370582579</v>
       </c>
       <c r="H50">
-        <v>0.9349593937397003</v>
+        <v>0.8513589918613433</v>
       </c>
       <c r="I50">
-        <v>0.9496103525161743</v>
+        <v>0.8382742702960968</v>
       </c>
       <c r="L50">
-        <v>34.99417315545625</v>
+        <v>71.62902028509943</v>
       </c>
       <c r="M50">
-        <v>34.15861651097718</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>68.3411887546859</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.8833984136581421</v>
+        <v>0.9361570477485656</v>
       </c>
       <c r="C51">
-        <v>0.8869208097457886</v>
+        <v>0.9403272271156312</v>
       </c>
       <c r="D51">
-        <v>0.8515815734863281</v>
+        <v>0.9141811728477478</v>
       </c>
       <c r="E51">
-        <v>0.8548321723937988</v>
+        <v>0.9274092316627502</v>
       </c>
       <c r="F51">
-        <v>36045952</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.9127767118829441</v>
+        <v>0.8724370547495754</v>
       </c>
       <c r="H51">
-        <v>0.9274420022964478</v>
+        <v>0.8575552016496658</v>
       </c>
       <c r="I51">
-        <v>0.9464374899864196</v>
+        <v>0.8415811041990916</v>
       </c>
       <c r="L51">
-        <v>26.18447127882627</v>
+        <v>67.65214662079282</v>
       </c>
       <c r="M51">
-        <v>28.5419140644165</v>
-      </c>
-      <c r="N51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>65.67379109341323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.8549138307571411</v>
+        <v>0.927215337753296</v>
       </c>
       <c r="C52">
-        <v>0.8637869358062744</v>
+        <v>0.9292129278182985</v>
       </c>
       <c r="D52">
-        <v>0.8525893688201904</v>
+        <v>0.9081761837005616</v>
       </c>
       <c r="E52">
-        <v>0.8595280647277832</v>
+        <v>0.9154370427131652</v>
       </c>
       <c r="F52">
-        <v>5664512</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.9079359257779295</v>
+        <v>0.8763461445644471</v>
       </c>
       <c r="H52">
-        <v>0.9196392297744751</v>
+        <v>0.861585745215416</v>
       </c>
       <c r="I52">
-        <v>0.9427793542544047</v>
+        <v>0.8442546208699544</v>
       </c>
       <c r="L52">
-        <v>29.46327632473515</v>
+        <v>62.14770333368107</v>
       </c>
       <c r="M52">
-        <v>30.56008217415571</v>
-      </c>
-      <c r="N52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>61.9795811808567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.859468936920166</v>
+        <v>0.9153090715408324</v>
       </c>
       <c r="C53">
-        <v>0.8640638589859009</v>
+        <v>0.9233094453811646</v>
       </c>
       <c r="D53">
-        <v>0.8477811217308044</v>
+        <v>0.9085720777511596</v>
       </c>
       <c r="E53">
-        <v>0.8479084968566895</v>
+        <v>0.909479022026062</v>
       </c>
       <c r="F53">
-        <v>13597536</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.9024788867850895</v>
+        <v>0.8793582243336848</v>
       </c>
       <c r="H53">
-        <v>0.9110274493694306</v>
+        <v>0.8649264276027679</v>
       </c>
       <c r="I53">
-        <v>0.938605793317159</v>
+        <v>0.8466102023919423</v>
       </c>
       <c r="L53">
-        <v>26.22105678041557</v>
+        <v>59.44005660096349</v>
       </c>
       <c r="M53">
-        <v>28.42111737299913</v>
-      </c>
-      <c r="N53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>60.16576994162719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.8479493856430054</v>
+        <v>0.909509778022766</v>
       </c>
       <c r="C54">
-        <v>0.8506224155426025</v>
+        <v>0.9269204139709472</v>
       </c>
       <c r="D54">
-        <v>0.8317251205444336</v>
+        <v>0.9032734632492064</v>
       </c>
       <c r="E54">
-        <v>0.8336736559867859</v>
+        <v>0.9259170293807985</v>
       </c>
       <c r="F54">
-        <v>16011520</v>
+        <v>1582080</v>
       </c>
       <c r="G54">
-        <v>0.8962238658034255</v>
+        <v>0.8835908429743314</v>
       </c>
       <c r="H54">
-        <v>0.9020828038454056</v>
+        <v>0.8703469038009644</v>
       </c>
       <c r="I54">
-        <v>0.9331231494744618</v>
+        <v>0.8497424642244975</v>
       </c>
       <c r="L54">
-        <v>22.76801584081438</v>
+        <v>64.27154400754505</v>
       </c>
       <c r="M54">
-        <v>26.01852995513122</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>63.35232701846737</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.8347095251083374</v>
+        <v>0.926167607307434</v>
       </c>
       <c r="C55">
-        <v>0.838939368724823</v>
+        <v>0.9434143900871276</v>
       </c>
       <c r="D55">
-        <v>0.8265690207481384</v>
+        <v>0.9055208563804626</v>
       </c>
       <c r="E55">
-        <v>0.8348593711853027</v>
+        <v>0.9055208563804626</v>
       </c>
       <c r="F55">
-        <v>11660064</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.8906452753835961</v>
+        <v>0.8855844805567069</v>
       </c>
       <c r="H55">
-        <v>0.8931356877088547</v>
+        <v>0.8745561867952347</v>
       </c>
       <c r="I55">
-        <v>0.9273795783519745</v>
+        <v>0.8521940608819326</v>
       </c>
       <c r="L55">
-        <v>23.70947702926792</v>
+        <v>55.10824006312344</v>
       </c>
       <c r="M55">
-        <v>26.57532140533702</v>
-      </c>
-      <c r="N55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>57.23437051222393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.8348054885864258</v>
+        <v>0.9054734706878662</v>
       </c>
       <c r="C56">
-        <v>0.8519669771194458</v>
+        <v>0.9133145809173584</v>
       </c>
       <c r="D56">
-        <v>0.8343870639801025</v>
+        <v>0.873481810092926</v>
       </c>
       <c r="E56">
-        <v>0.8519669771194458</v>
+        <v>0.8872520923614502</v>
       </c>
       <c r="F56">
-        <v>3422496</v>
+        <v>31880576</v>
       </c>
       <c r="G56">
-        <v>0.8871290664504915</v>
+        <v>0.8857360816298654</v>
       </c>
       <c r="H56">
-        <v>0.8864704489707946</v>
+        <v>0.8783202767372131</v>
       </c>
       <c r="I56">
-        <v>0.9234308024247487</v>
+        <v>0.854011344909668</v>
       </c>
       <c r="L56">
-        <v>36.31119371048734</v>
+        <v>48.18571316993864</v>
       </c>
       <c r="M56">
-        <v>34.26264814967716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>52.35722620294557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.8522286415100098</v>
+        <v>0.8872519135475159</v>
       </c>
       <c r="C57">
-        <v>0.8531029224395752</v>
+        <v>0.8982759118080139</v>
       </c>
       <c r="D57">
-        <v>0.8396129608154297</v>
+        <v>0.8444507122039795</v>
       </c>
       <c r="E57">
-        <v>0.8404266238212585</v>
+        <v>0.864293098449707</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>53333568</v>
       </c>
       <c r="G57">
-        <v>0.8828833898478339</v>
+        <v>0.8837867195225783</v>
       </c>
       <c r="H57">
-        <v>0.8797770887613297</v>
+        <v>0.8818428903818131</v>
       </c>
       <c r="I57">
-        <v>0.9191268463929494</v>
+        <v>0.8561320185661316</v>
       </c>
       <c r="L57">
-        <v>32.26643604310048</v>
+        <v>40.91855506778236</v>
       </c>
       <c r="M57">
-        <v>31.84087826114076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>46.94331843873252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.8403010368347168</v>
+        <v>0.8639996647834778</v>
       </c>
       <c r="C58">
-        <v>0.840939998626709</v>
+        <v>0.86690753698349</v>
       </c>
       <c r="D58">
-        <v>0.8009833097457886</v>
+        <v>0.8452116250991821</v>
       </c>
       <c r="E58">
-        <v>0.8106151223182678</v>
+        <v>0.861281156539917</v>
       </c>
       <c r="F58">
-        <v>55402080</v>
+        <v>10957952</v>
       </c>
       <c r="G58">
-        <v>0.876313547345146</v>
+        <v>0.8817407592514273</v>
       </c>
       <c r="H58">
-        <v>0.8718217074871063</v>
+        <v>0.8850781321525574</v>
       </c>
       <c r="I58">
-        <v>0.9139244397481282</v>
+        <v>0.8595061520735423</v>
       </c>
       <c r="L58">
-        <v>24.37557880850681</v>
+        <v>40.02760737029132</v>
       </c>
       <c r="M58">
-        <v>26.60867480069611</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>46.26741005460176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.8108459711074829</v>
+        <v>0.86126309633255</v>
       </c>
       <c r="C59">
-        <v>0.8264603018760681</v>
+        <v>0.8750432133674622</v>
       </c>
       <c r="D59">
-        <v>0.8076848387718201</v>
+        <v>0.8601781129837036</v>
       </c>
       <c r="E59">
-        <v>0.8247126936912537</v>
+        <v>0.8712583780288696</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.8716225606493375</v>
+        <v>0.8807878155039219</v>
       </c>
       <c r="H59">
-        <v>0.8641489505767822</v>
+        <v>0.888341200351715</v>
       </c>
       <c r="I59">
-        <v>0.9084463973840078</v>
+        <v>0.8626458585262299</v>
       </c>
       <c r="L59">
-        <v>33.08181268860991</v>
+        <v>44.52867946814731</v>
       </c>
       <c r="M59">
-        <v>32.27611063529714</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>48.89251265301758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.8247717618942261</v>
+        <v>0.8712576627731323</v>
       </c>
       <c r="C60">
-        <v>0.8338533043861389</v>
+        <v>0.8758046627044678</v>
       </c>
       <c r="D60">
-        <v>0.8166142702102661</v>
+        <v>0.8646438121795654</v>
       </c>
       <c r="E60">
-        <v>0.8338336944580078</v>
+        <v>0.8727933764457703</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.8681872091773984</v>
+        <v>0.8800610483168172</v>
       </c>
       <c r="H60">
-        <v>0.8569476753473282</v>
+        <v>0.8912392288446427</v>
       </c>
       <c r="I60">
-        <v>0.90305149157842</v>
+        <v>0.8655940373738606</v>
       </c>
       <c r="L60">
-        <v>38.25568773879474</v>
+        <v>45.24002187623785</v>
       </c>
       <c r="M60">
-        <v>35.73396170554373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>49.30288187599125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.8338167667388916</v>
+        <v>0.8728507161140442</v>
       </c>
       <c r="C61">
-        <v>0.8379625082015991</v>
+        <v>0.8840710520744324</v>
       </c>
       <c r="D61">
-        <v>0.8296259641647339</v>
+        <v>0.871451735496521</v>
       </c>
       <c r="E61">
-        <v>0.8314318656921387</v>
+        <v>0.8821936249732971</v>
       </c>
       <c r="F61">
-        <v>3007968</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.8648458143151021</v>
+        <v>0.8802549189219517</v>
       </c>
       <c r="H61">
-        <v>0.8513896584510803</v>
+        <v>0.8943364977836609</v>
       </c>
       <c r="I61">
-        <v>0.8972598870595296</v>
+        <v>0.8682176570097605</v>
       </c>
       <c r="L61">
-        <v>37.39907466755485</v>
+        <v>49.68520662847291</v>
       </c>
       <c r="M61">
-        <v>35.22394243189922</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>51.85252756296033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.8314515948295593</v>
+        <v>0.8821936249732971</v>
       </c>
       <c r="C62">
-        <v>0.8321124911308289</v>
+        <v>0.8870844841003418</v>
       </c>
       <c r="D62">
-        <v>0.821381688117981</v>
+        <v>0.8735311031341553</v>
       </c>
       <c r="E62">
-        <v>0.8282042145729065</v>
+        <v>0.8869741559028625</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.8615147597930843</v>
+        <v>0.8808657586474891</v>
       </c>
       <c r="H62">
-        <v>0.8495463043451309</v>
+        <v>0.8965167164802551</v>
       </c>
       <c r="I62">
-        <v>0.891013910373052</v>
+        <v>0.8699559231599172</v>
       </c>
       <c r="L62">
-        <v>36.17449177716013</v>
+        <v>51.91824497225561</v>
       </c>
       <c r="M62">
-        <v>34.51110015059791</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>53.14312662750081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.8282904028892517</v>
+        <v>0.8869147896766663</v>
       </c>
       <c r="C63">
-        <v>0.8390868306159973</v>
+        <v>0.8872169256210327</v>
       </c>
       <c r="D63">
-        <v>0.8274382352828979</v>
+        <v>0.8819739818572998</v>
       </c>
       <c r="E63">
-        <v>0.8352315425872803</v>
+        <v>0.8819739818572998</v>
       </c>
       <c r="F63">
-        <v>2847008</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.8591253764107385</v>
+        <v>0.8809665062120173</v>
       </c>
       <c r="H63">
-        <v>0.8485158145427704</v>
+        <v>0.8981155604124069</v>
       </c>
       <c r="I63">
-        <v>0.8848501582940419</v>
+        <v>0.8712662100791931</v>
       </c>
       <c r="L63">
-        <v>40.91334136554316</v>
+        <v>49.34148359557691</v>
       </c>
       <c r="M63">
-        <v>37.47782904934786</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>51.58558422512459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.8352618217468262</v>
+        <v>0.88189297914505</v>
       </c>
       <c r="C64">
-        <v>0.8431475758552551</v>
+        <v>0.8818933367729187</v>
       </c>
       <c r="D64">
-        <v>0.8351434469223022</v>
+        <v>0.8727874755859375</v>
       </c>
       <c r="E64">
-        <v>0.8388115763664246</v>
+        <v>0.8754746317863464</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.8572786673158008</v>
+        <v>0.8804672449005927</v>
       </c>
       <c r="H64">
-        <v>0.8476865768432618</v>
+        <v>0.8987426161766052</v>
       </c>
       <c r="I64">
-        <v>0.87905832529068</v>
+        <v>0.8731984476248423</v>
       </c>
       <c r="L64">
-        <v>43.32502001952878</v>
+        <v>46.00279618291847</v>
       </c>
       <c r="M64">
-        <v>38.99405494193724</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>49.55262380476057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.8389499187469482</v>
+        <v>0.8755561113357544</v>
       </c>
       <c r="C65">
-        <v>0.8434427976608276</v>
+        <v>0.8823022842407227</v>
       </c>
       <c r="D65">
-        <v>0.8275351524353027</v>
+        <v>0.870827317237854</v>
       </c>
       <c r="E65">
-        <v>0.8319491744041443</v>
+        <v>0.8741451501846313</v>
       </c>
       <c r="F65">
-        <v>2495168</v>
+        <v>6306144</v>
       </c>
       <c r="G65">
-        <v>0.8549759861420139</v>
+        <v>0.8798925090173235</v>
       </c>
       <c r="H65">
-        <v>0.8462888956069946</v>
+        <v>0.8975675463676452</v>
       </c>
       <c r="I65">
-        <v>0.872996574640274</v>
+        <v>0.8749587794144948</v>
       </c>
       <c r="L65">
-        <v>39.82013120076633</v>
+        <v>45.29745013709764</v>
       </c>
       <c r="M65">
-        <v>37.13502130164632</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>49.12613245205759</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.8319327235221863</v>
+        <v>0.8741700649261475</v>
       </c>
       <c r="C66">
-        <v>0.8435434103012085</v>
+        <v>0.8755020499229431</v>
       </c>
       <c r="D66">
-        <v>0.8292443156242371</v>
+        <v>0.8658568263053894</v>
       </c>
       <c r="E66">
-        <v>0.8319729566574097</v>
+        <v>0.8665452599525452</v>
       </c>
       <c r="F66">
-        <v>6205216</v>
+        <v>4228096</v>
       </c>
       <c r="G66">
-        <v>0.8528848016434134</v>
+        <v>0.8786791227387073</v>
       </c>
       <c r="H66">
-        <v>0.8448194414377213</v>
+        <v>0.8955534249544144</v>
       </c>
       <c r="I66">
-        <v>0.8678866147994995</v>
+        <v>0.8767779449621836</v>
       </c>
       <c r="L66">
-        <v>39.83910608450901</v>
+        <v>41.23181868253138</v>
       </c>
       <c r="M66">
-        <v>37.14620490832586</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>46.65416003228668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.8319306373596191</v>
+        <v>0.8664776086807251</v>
       </c>
       <c r="C67">
-        <v>0.8342052698135376</v>
+        <v>0.8742244243621826</v>
       </c>
       <c r="D67">
-        <v>0.8243628740310669</v>
+        <v>0.8629262447357178</v>
       </c>
       <c r="E67">
-        <v>0.8327335715293884</v>
+        <v>0.8734051585197449</v>
       </c>
       <c r="F67">
-        <v>3984352</v>
+        <v>2915872</v>
       </c>
       <c r="G67">
-        <v>0.8510528716330475</v>
+        <v>0.8781996714460744</v>
       </c>
       <c r="H67">
-        <v>0.8434196591377259</v>
+        <v>0.8941384851932526</v>
       </c>
       <c r="I67">
-        <v>0.8631679395834605</v>
+        <v>0.8794300893942515</v>
       </c>
       <c r="L67">
-        <v>40.51395617317481</v>
+        <v>46.14065153537679</v>
       </c>
       <c r="M67">
-        <v>37.5289839737789</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>49.14179761631867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.8327440619468689</v>
+        <v>0.8733846545219421</v>
       </c>
       <c r="C68">
-        <v>0.8332133293151855</v>
+        <v>0.8741182684898376</v>
       </c>
       <c r="D68">
-        <v>0.797690212726593</v>
+        <v>0.8504966497421265</v>
       </c>
       <c r="E68">
-        <v>0.8006728887557983</v>
+        <v>0.8504966497421265</v>
       </c>
       <c r="F68">
-        <v>31912416</v>
+        <v>5158496</v>
       </c>
       <c r="G68">
-        <v>0.8464728731896612</v>
+        <v>0.8756812149275336</v>
       </c>
       <c r="H68">
-        <v>0.8393853634595871</v>
+        <v>0.889303594827652</v>
       </c>
       <c r="I68">
-        <v>0.857532944281896</v>
+        <v>0.881227433681488</v>
       </c>
       <c r="L68">
-        <v>26.44637019514738</v>
+        <v>35.11971262140196</v>
       </c>
       <c r="M68">
-        <v>29.4011675346543</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>42.08402543843714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.8008039593696594</v>
+        <v>0.8505331873893738</v>
       </c>
       <c r="C69">
-        <v>0.8032948970794678</v>
+        <v>0.8594828844070435</v>
       </c>
       <c r="D69">
-        <v>0.7464235424995422</v>
+        <v>0.8377258777618408</v>
       </c>
       <c r="E69">
-        <v>0.7600571513175964</v>
+        <v>0.8378424644470215</v>
       </c>
       <c r="F69">
-        <v>114264832</v>
+        <v>30865920</v>
       </c>
       <c r="G69">
-        <v>0.838616898474019</v>
+        <v>0.8722413285202143</v>
       </c>
       <c r="H69">
-        <v>0.8333432585000992</v>
+        <v>0.8852772235870361</v>
       </c>
       <c r="I69">
-        <v>0.850262588262558</v>
+        <v>0.882288948694865</v>
       </c>
       <c r="L69">
-        <v>17.69144649027372</v>
+        <v>30.58060174312846</v>
       </c>
       <c r="M69">
-        <v>22.69536797603303</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>38.7715559995005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.7601774930953979</v>
+        <v>0.8377636671066284</v>
       </c>
       <c r="C70">
-        <v>0.7876086235046387</v>
+        <v>0.85892653465271</v>
       </c>
       <c r="D70">
-        <v>0.7589012980461121</v>
+        <v>0.8371360898017883</v>
       </c>
       <c r="E70">
-        <v>0.7770671844482422</v>
+        <v>0.855060338973999</v>
       </c>
       <c r="F70">
-        <v>45704480</v>
+        <v>8106720</v>
       </c>
       <c r="G70">
-        <v>0.8330214699262211</v>
+        <v>0.8706794203796493</v>
       </c>
       <c r="H70">
-        <v>0.8280244499444962</v>
+        <v>0.8812376350164414</v>
       </c>
       <c r="I70">
-        <v>0.8435695211092631</v>
+        <v>0.8836298664410909</v>
       </c>
       <c r="L70">
-        <v>28.79717066846192</v>
+        <v>42.04626406623755</v>
       </c>
       <c r="M70">
-        <v>29.90583443731378</v>
-      </c>
-      <c r="N70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>45.10313698662632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.7770843505859375</v>
+        <v>0.855044424533844</v>
       </c>
       <c r="C71">
-        <v>0.7843480110168457</v>
+        <v>0.8621524572372437</v>
       </c>
       <c r="D71">
-        <v>0.7710409164428711</v>
+        <v>0.8532482981681824</v>
       </c>
       <c r="E71">
-        <v>0.7843480110168457</v>
+        <v>0.8570194244384766</v>
       </c>
       <c r="F71">
-        <v>14291520</v>
+        <v>618016</v>
       </c>
       <c r="G71">
-        <v>0.8285966100253687</v>
+        <v>0.8694376025668155</v>
       </c>
       <c r="H71">
-        <v>0.8245002418756485</v>
+        <v>0.8777181446552277</v>
       </c>
       <c r="I71">
-        <v>0.8382947146892548</v>
+        <v>0.884855572382609</v>
       </c>
       <c r="L71">
-        <v>33.14116047053994</v>
+        <v>43.24615009315874</v>
       </c>
       <c r="M71">
-        <v>32.7953011345426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>45.7900417739717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.7844957709312439</v>
+        <v>0.8569256067276001</v>
       </c>
       <c r="C72">
-        <v>0.8047268390655518</v>
+        <v>0.8648053407669067</v>
       </c>
       <c r="D72">
-        <v>0.7844957709312439</v>
+        <v>0.8549599051475525</v>
       </c>
       <c r="E72">
-        <v>0.8034850358963013</v>
+        <v>0.862634539604187</v>
       </c>
       <c r="F72">
-        <v>56481664</v>
+        <v>656576</v>
       </c>
       <c r="G72">
-        <v>0.8263137396499989</v>
+        <v>0.8688191422974856</v>
       </c>
       <c r="H72">
-        <v>0.8216980904340744</v>
+        <v>0.8750780194997787</v>
       </c>
       <c r="I72">
-        <v>0.8362418393294017</v>
+        <v>0.8854977309703826</v>
       </c>
       <c r="L72">
-        <v>43.35919210470718</v>
+        <v>46.7979211885191</v>
       </c>
       <c r="M72">
-        <v>39.81766423295253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>47.80590184206119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.8035376071929932</v>
+        <v>0.8625006675720215</v>
       </c>
       <c r="C73">
-        <v>0.8361914157867432</v>
+        <v>0.8663680553436279</v>
       </c>
       <c r="D73">
-        <v>0.8014088869094849</v>
+        <v>0.8369727730751038</v>
       </c>
       <c r="E73">
-        <v>0.8348261713981628</v>
+        <v>0.8373624682426453</v>
       </c>
       <c r="F73">
-        <v>71807872</v>
+        <v>25730336</v>
       </c>
       <c r="G73">
-        <v>0.8270875970816501</v>
+        <v>0.8659594446561365</v>
       </c>
       <c r="H73">
-        <v>0.821043974161148</v>
+        <v>0.8714721918106079</v>
       </c>
       <c r="I73">
-        <v>0.8355413337548574</v>
+        <v>0.8850765764713288</v>
       </c>
       <c r="L73">
-        <v>55.8039106655521</v>
+        <v>35.53717369951664</v>
       </c>
       <c r="M73">
-        <v>49.1828962339372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>40.50528072304581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.8348420858383179</v>
+        <v>0.8374537229537964</v>
       </c>
       <c r="C74">
-        <v>0.84307861328125</v>
+        <v>0.8567601442337036</v>
       </c>
       <c r="D74">
-        <v>0.8285537362098694</v>
+        <v>0.8370814323425293</v>
       </c>
       <c r="E74">
-        <v>0.8426653742790222</v>
+        <v>0.8468437790870667</v>
       </c>
       <c r="F74">
-        <v>29696000</v>
+        <v>10756480</v>
       </c>
       <c r="G74">
-        <v>0.8285037586450477</v>
+        <v>0.8642216568771302</v>
       </c>
       <c r="H74">
-        <v>0.8214935600757599</v>
+        <v>0.8675185292959213</v>
       </c>
       <c r="I74">
-        <v>0.8351169685522716</v>
+        <v>0.8845402518908183</v>
       </c>
       <c r="L74">
-        <v>58.37724470910918</v>
+        <v>41.48039761874631</v>
       </c>
       <c r="M74">
-        <v>51.22730672113055</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>43.96281755394375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.842612087726593</v>
+        <v>0.8468437790870667</v>
       </c>
       <c r="C75">
-        <v>0.8441055417060852</v>
+        <v>0.8554661273956299</v>
       </c>
       <c r="D75">
-        <v>0.8167364597320557</v>
+        <v>0.8398033380508423</v>
       </c>
       <c r="E75">
-        <v>0.8175075054168701</v>
+        <v>0.8449417352676392</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.8275040992606679</v>
+        <v>0.8624689367308127</v>
       </c>
       <c r="H75">
-        <v>0.8206259667873382</v>
+        <v>0.8644895732402802</v>
       </c>
       <c r="I75">
-        <v>0.8337037920951843</v>
+        <v>0.8827834248542785</v>
       </c>
       <c r="L75">
-        <v>48.23702615916401</v>
+        <v>40.63489196643173</v>
       </c>
       <c r="M75">
-        <v>44.9740429405318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>43.4176976971591</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.8174787163734436</v>
+        <v>0.8448100686073303</v>
       </c>
       <c r="C76">
-        <v>0.8308605551719666</v>
+        <v>0.8552831411361694</v>
       </c>
       <c r="D76">
-        <v>0.8173023462295532</v>
+        <v>0.8446388840675354</v>
       </c>
       <c r="E76">
-        <v>0.8213351964950562</v>
+        <v>0.8552831411361694</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>294240</v>
       </c>
       <c r="G76">
-        <v>0.8269432899183395</v>
+        <v>0.8618156825858452</v>
       </c>
       <c r="H76">
-        <v>0.8190943777561188</v>
+        <v>0.8628911256790162</v>
       </c>
       <c r="I76">
-        <v>0.8323695639769236</v>
+        <v>0.8810652732849121</v>
       </c>
       <c r="L76">
-        <v>49.73158984358749</v>
+        <v>47.21584465303664</v>
       </c>
       <c r="M76">
-        <v>46.05303915982287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>47.24763913192974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.8212902545928955</v>
+        <v>0.85544353723526</v>
       </c>
       <c r="C77">
-        <v>0.824974536895752</v>
+        <v>0.8570289611816406</v>
       </c>
       <c r="D77">
-        <v>0.8049978613853455</v>
+        <v>0.8442494869232178</v>
       </c>
       <c r="E77">
-        <v>0.8119702935218811</v>
+        <v>0.847828209400177</v>
       </c>
       <c r="F77">
-        <v>6352384</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.8255821084277525</v>
+        <v>0.8605440941144208</v>
       </c>
       <c r="H77">
-        <v>0.8176715612411499</v>
+        <v>0.8620678812265397</v>
       </c>
       <c r="I77">
-        <v>0.8307442665100098</v>
+        <v>0.879269415140152</v>
       </c>
       <c r="L77">
-        <v>46.07029171834445</v>
+        <v>43.32114441475822</v>
       </c>
       <c r="M77">
-        <v>43.79056339218835</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>44.88880019944539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.8121668100357056</v>
+        <v>0.8477506637573242</v>
       </c>
       <c r="C78">
-        <v>0.8146865367889404</v>
+        <v>0.8539469838142395</v>
       </c>
       <c r="D78">
-        <v>0.7866756916046143</v>
+        <v>0.8451575636863708</v>
       </c>
       <c r="E78">
-        <v>0.7938408255577087</v>
+        <v>0.8479607701301575</v>
       </c>
       <c r="F78">
-        <v>26719584</v>
+        <v>3955872</v>
       </c>
       <c r="G78">
-        <v>0.8226965372577485</v>
+        <v>0.8594001555703968</v>
       </c>
       <c r="H78">
-        <v>0.8168328464031219</v>
+        <v>0.8614018619060516</v>
       </c>
       <c r="I78">
-        <v>0.827827000617981</v>
+        <v>0.8759616255760193</v>
       </c>
       <c r="L78">
-        <v>39.70419231781421</v>
+        <v>43.41451606761165</v>
       </c>
       <c r="M78">
-        <v>39.72215192887449</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>44.94143814581032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.7936835289001465</v>
+        <v>0.8480733633041382</v>
       </c>
       <c r="C79">
-        <v>0.8053929805755615</v>
+        <v>0.8531306982040405</v>
       </c>
       <c r="D79">
-        <v>0.7850297093391418</v>
+        <v>0.8304153680801392</v>
       </c>
       <c r="E79">
-        <v>0.7965763211250305</v>
+        <v>0.850907027721405</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>15839648</v>
       </c>
       <c r="G79">
-        <v>0.8203219721547741</v>
+        <v>0.8586280530386703</v>
       </c>
       <c r="H79">
-        <v>0.8154260277748108</v>
+        <v>0.8603842943906784</v>
       </c>
       <c r="I79">
-        <v>0.8250162363052368</v>
+        <v>0.8737128635247549</v>
       </c>
       <c r="L79">
-        <v>41.08608344095196</v>
+        <v>45.65311840775374</v>
       </c>
       <c r="M79">
-        <v>40.61861071938785</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>46.17201212644597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.7965320348739624</v>
+        <v>0.8508887887001038</v>
       </c>
       <c r="C80">
-        <v>0.8137451410293579</v>
+        <v>0.8518621325492859</v>
       </c>
       <c r="D80">
-        <v>0.7838624715805054</v>
+        <v>0.8394472002983093</v>
       </c>
       <c r="E80">
-        <v>0.8059970140457153</v>
+        <v>0.8426405787467957</v>
       </c>
       <c r="F80">
-        <v>115913408</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.8190197032357688</v>
+        <v>0.8571746462848635</v>
       </c>
       <c r="H80">
-        <v>0.8140341937541962</v>
+        <v>0.8588766545057297</v>
       </c>
       <c r="I80">
-        <v>0.8224346915880839</v>
+        <v>0.8706058124701183</v>
       </c>
       <c r="L80">
-        <v>45.89069234471203</v>
+        <v>40.58508803829269</v>
       </c>
       <c r="M80">
-        <v>43.72272137475245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>43.2511347227991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.8061506748199463</v>
+        <v>0.8426138162612915</v>
       </c>
       <c r="C81">
-        <v>0.8244208097457886</v>
+        <v>0.8530402183532715</v>
       </c>
       <c r="D81">
-        <v>0.8049792647361755</v>
+        <v>0.8426138162612915</v>
       </c>
       <c r="E81">
-        <v>0.8148328065872192</v>
+        <v>0.8453485369682312</v>
       </c>
       <c r="F81">
-        <v>11453696</v>
+        <v>6108704</v>
       </c>
       <c r="G81">
-        <v>0.8186390762677188</v>
+        <v>0.8560995454378969</v>
       </c>
       <c r="H81">
-        <v>0.8132042407989502</v>
+        <v>0.8570344001054764</v>
       </c>
       <c r="I81">
-        <v>0.8211013793945312</v>
+        <v>0.8678704559803009</v>
       </c>
       <c r="L81">
-        <v>50.17792582520354</v>
+        <v>42.92029808217035</v>
       </c>
       <c r="M81">
-        <v>46.54513971401661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>44.48997022271712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.8147574663162231</v>
+        <v>0.8451029062271118</v>
       </c>
       <c r="C82">
-        <v>0.8290883898735046</v>
+        <v>0.8470944762229919</v>
       </c>
       <c r="D82">
-        <v>0.814629077911377</v>
+        <v>0.8410468697547913</v>
       </c>
       <c r="E82">
-        <v>0.8202482461929321</v>
+        <v>0.8451957106590271</v>
       </c>
       <c r="F82">
-        <v>7212416</v>
+        <v>1000832</v>
       </c>
       <c r="G82">
-        <v>0.8187853644427382</v>
+        <v>0.8551082877307269</v>
       </c>
       <c r="H82">
-        <v>0.8128064423799515</v>
+        <v>0.8549454778432846</v>
       </c>
       <c r="I82">
-        <v>0.8197920521100363</v>
+        <v>0.865529078245163</v>
       </c>
       <c r="L82">
-        <v>52.75879986694333</v>
+        <v>42.81346161388529</v>
       </c>
       <c r="M82">
-        <v>48.25793303446782</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>44.43102025190858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.8200867176055908</v>
+        <v>0.845193088054657</v>
       </c>
       <c r="C83">
-        <v>0.8510816097259521</v>
+        <v>0.8479464054107666</v>
       </c>
       <c r="D83">
-        <v>0.8130913376808167</v>
+        <v>0.8327546715736389</v>
       </c>
       <c r="E83">
-        <v>0.8433697819709778</v>
+        <v>0.8328266739845276</v>
       </c>
       <c r="F83">
-        <v>51131136</v>
+        <v>5420096</v>
       </c>
       <c r="G83">
-        <v>0.8210203114907599</v>
+        <v>0.8530826864810724</v>
       </c>
       <c r="H83">
-        <v>0.8132133543491363</v>
+        <v>0.852488112449646</v>
       </c>
       <c r="I83">
-        <v>0.8196407616138458</v>
+        <v>0.8629739999771118</v>
       </c>
       <c r="L83">
-        <v>62.17124637457844</v>
+        <v>34.90288123449568</v>
       </c>
       <c r="M83">
-        <v>54.90211583411123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>39.83094890293211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.8434202075004578</v>
+        <v>0.832826554775238</v>
       </c>
       <c r="C84">
-        <v>0.8499971032142639</v>
+        <v>0.8412032723426819</v>
       </c>
       <c r="D84">
-        <v>0.8087325096130371</v>
+        <v>0.8306819796562195</v>
       </c>
       <c r="E84">
-        <v>0.8499971032142639</v>
+        <v>0.8383789658546448</v>
       </c>
       <c r="F84">
-        <v>40590336</v>
+        <v>4467488</v>
       </c>
       <c r="G84">
-        <v>0.8236545652838058</v>
+        <v>0.8517459846059426</v>
       </c>
       <c r="H84">
-        <v>0.8137726306915283</v>
+        <v>0.8506333291530609</v>
       </c>
       <c r="I84">
-        <v>0.8201848765214285</v>
+        <v>0.8600560645262401</v>
       </c>
       <c r="L84">
-        <v>64.45492457702318</v>
+        <v>40.45854999210845</v>
       </c>
       <c r="M84">
-        <v>56.62152069595582</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>42.69884084281539</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.8511151075363159</v>
+        <v>0.838425874710083</v>
       </c>
       <c r="C85">
-        <v>0.8644557595252991</v>
+        <v>0.8495460748672485</v>
       </c>
       <c r="D85">
-        <v>0.8333429098129272</v>
+        <v>0.8304399847984314</v>
       </c>
       <c r="E85">
-        <v>0.8629335165023804</v>
+        <v>0.8351439833641052</v>
       </c>
       <c r="F85">
-        <v>60189056</v>
+        <v>16988832</v>
       </c>
       <c r="G85">
-        <v>0.8272253790309489</v>
+        <v>0.8502367117657755</v>
       </c>
       <c r="H85">
-        <v>0.8153218477964401</v>
+        <v>0.8486832708120347</v>
       </c>
       <c r="I85">
-        <v>0.821120681365331</v>
+        <v>0.8577101687590282</v>
       </c>
       <c r="L85">
-        <v>68.61552597434523</v>
+        <v>38.31517780198666</v>
       </c>
       <c r="M85">
-        <v>59.84017502566982</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>41.45892561355354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.8626584410667419</v>
+        <v>0.8352447748184204</v>
       </c>
       <c r="C86">
-        <v>0.910910189151764</v>
+        <v>0.8372735381126404</v>
       </c>
       <c r="D86">
-        <v>0.8461793661117554</v>
+        <v>0.8111101984977722</v>
       </c>
       <c r="E86">
-        <v>0.8976465463638306</v>
+        <v>0.8132252097129822</v>
       </c>
       <c r="F86">
-        <v>110711680</v>
+        <v>59613088</v>
       </c>
       <c r="G86">
-        <v>0.8336273033339382</v>
+        <v>0.8468720297609762</v>
       </c>
       <c r="H86">
-        <v>0.8186055272817612</v>
+        <v>0.8460172683000564</v>
       </c>
       <c r="I86">
-        <v>0.8226433336734772</v>
+        <v>0.8552426060040792</v>
       </c>
       <c r="L86">
-        <v>76.80982570908833</v>
+        <v>27.29357886106715</v>
       </c>
       <c r="M86">
-        <v>66.93083375573102</v>
-      </c>
-      <c r="O86" t="s">
+        <v>34.21021566897448</v>
+      </c>
+      <c r="N86" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.898382306098938</v>
+        <v>0.8131894469261169</v>
       </c>
       <c r="C87">
-        <v>0.9270738363265992</v>
+        <v>0.8160291314125061</v>
       </c>
       <c r="D87">
-        <v>0.8966564536094666</v>
+        <v>0.8031207323074341</v>
       </c>
       <c r="E87">
-        <v>0.9068276882171632</v>
+        <v>0.8092999458312988</v>
       </c>
       <c r="F87">
-        <v>120362496</v>
+        <v>50800768</v>
       </c>
       <c r="G87">
-        <v>0.8402818837778677</v>
+        <v>0.8434563857673691</v>
       </c>
       <c r="H87">
-        <v>0.8223102331161499</v>
+        <v>0.8428120076656341</v>
       </c>
       <c r="I87">
-        <v>0.824856702486674</v>
+        <v>0.8534095009167989</v>
       </c>
       <c r="L87">
-        <v>78.48155007667793</v>
+        <v>25.79846992751812</v>
       </c>
       <c r="M87">
-        <v>68.51425894862672</v>
-      </c>
-      <c r="O87" t="s">
+        <v>33.09429554577603</v>
+      </c>
+      <c r="N87" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.907386600971222</v>
+        <v>0.8095293045043945</v>
       </c>
       <c r="C88">
-        <v>0.9126192927360536</v>
+        <v>0.8158758878707886</v>
       </c>
       <c r="D88">
-        <v>0.8846240639686584</v>
+        <v>0.8018952012062073</v>
       </c>
       <c r="E88">
-        <v>0.901703953742981</v>
+        <v>0.8085643649101257</v>
       </c>
       <c r="F88">
-        <v>38797888</v>
+        <v>21087840</v>
       </c>
       <c r="G88">
-        <v>0.8458657083201507</v>
+        <v>0.840284383871256</v>
       </c>
       <c r="H88">
-        <v>0.8273617863655091</v>
+        <v>0.8407153934240341</v>
       </c>
       <c r="I88">
-        <v>0.8278929968674977</v>
+        <v>0.8516522745291392</v>
       </c>
       <c r="L88">
-        <v>75.08336649510564</v>
+        <v>25.50393710468238</v>
       </c>
       <c r="M88">
-        <v>66.59776024486443</v>
-      </c>
-      <c r="O88" t="s">
+        <v>32.87786072634583</v>
+      </c>
+      <c r="N88" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.9017359018325806</v>
+        <v>0.8085793256759644</v>
       </c>
       <c r="C89">
-        <v>0.9487000107765198</v>
+        <v>0.8191888332366943</v>
       </c>
       <c r="D89">
-        <v>0.9012415409088136</v>
+        <v>0.8085793256759644</v>
       </c>
       <c r="E89">
-        <v>0.9471944570541382</v>
+        <v>0.8184061646461487</v>
       </c>
       <c r="F89">
-        <v>52580800</v>
+        <v>5185600</v>
       </c>
       <c r="G89">
-        <v>0.8550774127505132</v>
+        <v>0.8382954548507917</v>
       </c>
       <c r="H89">
-        <v>0.8367186516523362</v>
+        <v>0.8397435784339905</v>
       </c>
       <c r="I89">
-        <v>0.8319757223129273</v>
+        <v>0.8498905340830485</v>
       </c>
       <c r="L89">
-        <v>82.60594529554005</v>
+        <v>36.42838686918665</v>
       </c>
       <c r="M89">
-        <v>73.64615683137983</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>38.65827207657171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.9473013877868652</v>
+        <v>0.8184516429901123</v>
       </c>
       <c r="C90">
-        <v>0.9555069208145142</v>
+        <v>0.8191344738006592</v>
       </c>
       <c r="D90">
-        <v>0.9160775542259216</v>
+        <v>0.8029430508613586</v>
       </c>
       <c r="E90">
-        <v>0.9183698892593384</v>
+        <v>0.8073551058769226</v>
       </c>
       <c r="F90">
-        <v>105511104</v>
+        <v>7094464</v>
       </c>
       <c r="G90">
-        <v>0.8608312742513154</v>
+        <v>0.8354826958531673</v>
       </c>
       <c r="H90">
-        <v>0.8437837868928909</v>
+        <v>0.8373583167791366</v>
       </c>
       <c r="I90">
-        <v>0.8347935954729716</v>
+        <v>0.8477092583974203</v>
       </c>
       <c r="L90">
-        <v>67.97641943316799</v>
+        <v>30.73488208904579</v>
       </c>
       <c r="M90">
-        <v>64.37640310045545</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>35.01219121998663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.9188826680183412</v>
+        <v>0.8075441122055054</v>
       </c>
       <c r="C91">
-        <v>0.9358521103858948</v>
+        <v>0.8120031356811523</v>
       </c>
       <c r="D91">
-        <v>0.9057101011276244</v>
+        <v>0.7999184727668762</v>
       </c>
       <c r="E91">
-        <v>0.9358521103858948</v>
+        <v>0.8114485740661621</v>
       </c>
       <c r="F91">
-        <v>14087552</v>
+        <v>5316352</v>
       </c>
       <c r="G91">
-        <v>0.8676513502635499</v>
+        <v>0.8332977756907122</v>
       </c>
       <c r="H91">
-        <v>0.8513589918613433</v>
+        <v>0.8350797742605209</v>
       </c>
       <c r="I91">
-        <v>0.8382742702960968</v>
+        <v>0.8453510900338491</v>
       </c>
       <c r="L91">
-        <v>71.42890703385345</v>
+        <v>34.9702568281942</v>
       </c>
       <c r="M91">
-        <v>67.08261571453619</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>37.36858723681296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.9361570477485656</v>
+        <v>0.8114742040634155</v>
       </c>
       <c r="C92">
-        <v>0.9403272271156312</v>
+        <v>0.8123700022697449</v>
       </c>
       <c r="D92">
-        <v>0.9141811728477478</v>
+        <v>0.7790156602859497</v>
       </c>
       <c r="E92">
-        <v>0.9274092316627502</v>
+        <v>0.7790156602859497</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>23941088</v>
       </c>
       <c r="G92">
-        <v>0.8730838849362044</v>
+        <v>0.8283630379266429</v>
       </c>
       <c r="H92">
-        <v>0.8575552016496658</v>
+        <v>0.8308988302946091</v>
       </c>
       <c r="I92">
-        <v>0.8415811041990916</v>
+        <v>0.8417524735132853</v>
       </c>
       <c r="L92">
-        <v>67.47650355058389</v>
+        <v>22.63395875228064</v>
       </c>
       <c r="M92">
-        <v>64.53294409382546</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>28.53909367681826</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.927215337753296</v>
+        <v>0.7792492508888245</v>
       </c>
       <c r="C93">
-        <v>0.9292129278182985</v>
+        <v>0.7898013591766357</v>
       </c>
       <c r="D93">
-        <v>0.9081761837005616</v>
+        <v>0.7768621444702148</v>
       </c>
       <c r="E93">
-        <v>0.9154370427131652</v>
+        <v>0.7847385406494141</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2574848</v>
       </c>
       <c r="G93">
-        <v>0.8769341720068371</v>
+        <v>0.8243971745378039</v>
       </c>
       <c r="H93">
-        <v>0.861585745215416</v>
+        <v>0.8282676339149475</v>
       </c>
       <c r="I93">
-        <v>0.8442546208699544</v>
+        <v>0.8385112921396891</v>
       </c>
       <c r="L93">
-        <v>62.00334624003666</v>
+        <v>27.69713190411269</v>
       </c>
       <c r="M93">
-        <v>60.99280317389521</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>31.60978706479749</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.9153090715408324</v>
+        <v>0.7847161293029785</v>
       </c>
       <c r="C94">
-        <v>0.9233094453811646</v>
+        <v>0.7877999544143677</v>
       </c>
       <c r="D94">
-        <v>0.9085720777511596</v>
+        <v>0.7663691639900208</v>
       </c>
       <c r="E94">
-        <v>0.909479022026062</v>
+        <v>0.7773770689964294</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>14467968</v>
       </c>
       <c r="G94">
-        <v>0.8798927947358575</v>
+        <v>0.8201226194885881</v>
       </c>
       <c r="H94">
-        <v>0.8649264276027679</v>
+        <v>0.8247942984104156</v>
       </c>
       <c r="I94">
-        <v>0.8466102023919423</v>
+        <v>0.8352413733800252</v>
       </c>
       <c r="L94">
-        <v>59.30998775574584</v>
+        <v>25.30099057970898</v>
       </c>
       <c r="M94">
-        <v>59.25080983631877</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>29.83391049761824</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.909509778022766</v>
+        <v>0.7773982286453247</v>
       </c>
       <c r="C95">
-        <v>0.9269204139709472</v>
+        <v>0.7884640693664551</v>
       </c>
       <c r="D95">
-        <v>0.9032734632492064</v>
+        <v>0.7767966389656067</v>
       </c>
       <c r="E95">
-        <v>0.9259170293807985</v>
+        <v>0.7859556674957275</v>
       </c>
       <c r="F95">
-        <v>1582080</v>
+        <v>890688</v>
       </c>
       <c r="G95">
-        <v>0.8840768160672157</v>
+        <v>0.8170165329437825</v>
       </c>
       <c r="H95">
-        <v>0.8703469038009644</v>
+        <v>0.8218449950218201</v>
       </c>
       <c r="I95">
-        <v>0.8497424642244975</v>
+        <v>0.8323017239570618</v>
       </c>
       <c r="L95">
-        <v>64.14432184462014</v>
+        <v>32.91018128579027</v>
       </c>
       <c r="M95">
-        <v>62.43827381494471</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>34.45522638741101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.926167607307434</v>
+        <v>0.7860368490219116</v>
       </c>
       <c r="C96">
-        <v>0.9434143900871276</v>
+        <v>0.7958347797393799</v>
       </c>
       <c r="D96">
-        <v>0.9055208563804626</v>
+        <v>0.7837353348731995</v>
       </c>
       <c r="E96">
-        <v>0.9055208563804626</v>
+        <v>0.7944656610488892</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>4407104</v>
       </c>
       <c r="G96">
-        <v>0.8860262742775108</v>
+        <v>0.8149664536806104</v>
       </c>
       <c r="H96">
-        <v>0.8745561867952347</v>
+        <v>0.818804121017456</v>
       </c>
       <c r="I96">
-        <v>0.8521940608819326</v>
+        <v>0.8298990706602732</v>
       </c>
       <c r="L96">
-        <v>55.01962391706895</v>
+        <v>39.75851204662597</v>
       </c>
       <c r="M96">
-        <v>56.52964434228171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>38.76389890146194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.9054734706878662</v>
+        <v>0.7944708466529846</v>
       </c>
       <c r="C97">
-        <v>0.9133145809173584</v>
+        <v>0.7944708466529846</v>
       </c>
       <c r="D97">
-        <v>0.873481810092926</v>
+        <v>0.7749003171920776</v>
       </c>
       <c r="E97">
-        <v>0.8872520923614502</v>
+        <v>0.7749003171920776</v>
       </c>
       <c r="F97">
-        <v>31880576</v>
+        <v>16785984</v>
       </c>
       <c r="G97">
-        <v>0.8861377122851416</v>
+        <v>0.8113240776361983</v>
       </c>
       <c r="H97">
-        <v>0.8783202767372131</v>
+        <v>0.8151577264070511</v>
       </c>
       <c r="I97">
-        <v>0.854011344909668</v>
+        <v>0.826615575949351</v>
       </c>
       <c r="L97">
-        <v>48.12175777632956</v>
+        <v>31.45399018636004</v>
       </c>
       <c r="M97">
-        <v>51.80117435968688</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>33.33782592617818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.8872519135475159</v>
+        <v>0.7747666239738464</v>
       </c>
       <c r="C98">
-        <v>0.8982759118080139</v>
+        <v>0.7747666239738464</v>
       </c>
       <c r="D98">
-        <v>0.8444507122039795</v>
+        <v>0.7442057132720947</v>
       </c>
       <c r="E98">
-        <v>0.864293098449707</v>
+        <v>0.7583374977111816</v>
       </c>
       <c r="F98">
-        <v>53333568</v>
+        <v>48885184</v>
       </c>
       <c r="G98">
-        <v>0.8841518383001021</v>
+        <v>0.8065071158248331</v>
       </c>
       <c r="H98">
-        <v>0.8818428903818131</v>
+        <v>0.8106765627861023</v>
       </c>
       <c r="I98">
-        <v>0.8561320185661316</v>
+        <v>0.8235436042149862</v>
       </c>
       <c r="L98">
-        <v>40.87631272439932</v>
+        <v>26.23521645503007</v>
       </c>
       <c r="M98">
-        <v>46.53328694986708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>29.56499414105082</v>
+      </c>
+      <c r="N98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.8639996647834778</v>
+        <v>0.7583690285682678</v>
       </c>
       <c r="C99">
-        <v>0.86690753698349</v>
+        <v>0.762961745262146</v>
       </c>
       <c r="D99">
-        <v>0.8452116250991821</v>
+        <v>0.7503939867019653</v>
       </c>
       <c r="E99">
-        <v>0.861281156539917</v>
+        <v>0.7608516216278076</v>
       </c>
       <c r="F99">
-        <v>10957952</v>
+        <v>48187712</v>
       </c>
       <c r="G99">
-        <v>0.8820726854128126</v>
+        <v>0.8023566163523762</v>
       </c>
       <c r="H99">
-        <v>0.8850781321525574</v>
+        <v>0.8061737924814224</v>
       </c>
       <c r="I99">
-        <v>0.8595061520735423</v>
+        <v>0.820977242787679</v>
       </c>
       <c r="L99">
-        <v>39.98773253982313</v>
+        <v>28.26763342917136</v>
       </c>
       <c r="M99">
-        <v>45.87419836649236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>30.84436031780485</v>
+      </c>
+      <c r="N99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.86126309633255</v>
+        <v>0.7610301375389099</v>
       </c>
       <c r="C100">
-        <v>0.8750432133674622</v>
+        <v>0.7640538215637207</v>
       </c>
       <c r="D100">
-        <v>0.8601781129837036</v>
+        <v>0.7516828179359436</v>
       </c>
       <c r="E100">
-        <v>0.8712583780288696</v>
+        <v>0.7635442614555359</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>24902080</v>
       </c>
       <c r="G100">
-        <v>0.8810895665597268</v>
+        <v>0.7988282204526634</v>
       </c>
       <c r="H100">
-        <v>0.888341200351715</v>
+        <v>0.8022189766168595</v>
       </c>
       <c r="I100">
-        <v>0.8626458585262299</v>
+        <v>0.8179267068703969</v>
       </c>
       <c r="L100">
-        <v>44.4850199543819</v>
+        <v>30.57246706073607</v>
       </c>
       <c r="M100">
-        <v>48.47750114436499</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>32.26343658889848</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.8712576627731323</v>
+        <v>0.7634652256965637</v>
       </c>
       <c r="C101">
-        <v>0.8758046627044678</v>
+        <v>0.7793404459953308</v>
       </c>
       <c r="D101">
-        <v>0.8646438121795654</v>
+        <v>0.7634652256965637</v>
       </c>
       <c r="E101">
-        <v>0.8727933764457703</v>
+        <v>0.7738854885101318</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>20437856</v>
       </c>
       <c r="G101">
-        <v>0.880335367458458</v>
+        <v>0.7965606993669788</v>
       </c>
       <c r="H101">
-        <v>0.8912392288446427</v>
+        <v>0.7986458241939545</v>
       </c>
       <c r="I101">
-        <v>0.8655940373738606</v>
+        <v>0.8151555756727854</v>
       </c>
       <c r="L101">
-        <v>45.19586473325236</v>
+        <v>39.03587199647332</v>
       </c>
       <c r="M101">
-        <v>48.8848374203146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>37.56253392213657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.8728507161140442</v>
+        <v>0.7737801074981689</v>
       </c>
       <c r="C102">
-        <v>0.8840710520744324</v>
+        <v>0.7768856883049011</v>
       </c>
       <c r="D102">
-        <v>0.871451735496521</v>
+        <v>0.7630687355995178</v>
       </c>
       <c r="E102">
-        <v>0.8821936249732971</v>
+        <v>0.7768856883049011</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>3628064</v>
       </c>
       <c r="G102">
-        <v>0.8805042999598069</v>
+        <v>0.794772061997699</v>
       </c>
       <c r="H102">
-        <v>0.8943364977836609</v>
+        <v>0.7952303230762482</v>
       </c>
       <c r="I102">
-        <v>0.8682176570097605</v>
+        <v>0.8122972806294759</v>
       </c>
       <c r="L102">
-        <v>49.63856122736103</v>
+        <v>41.36865255942964</v>
       </c>
       <c r="M102">
-        <v>51.41791453482802</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>39.05223559123901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.8821936249732971</v>
+        <v>0.7768990397453308</v>
       </c>
       <c r="C103">
-        <v>0.8870844841003418</v>
+        <v>0.7782284021377563</v>
       </c>
       <c r="D103">
-        <v>0.8735311031341553</v>
+        <v>0.771350622177124</v>
       </c>
       <c r="E103">
-        <v>0.8869741559028625</v>
+        <v>0.7748350501060486</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2007264</v>
       </c>
       <c r="G103">
-        <v>0.8810924686819029</v>
+        <v>0.7929596063711852</v>
       </c>
       <c r="H103">
-        <v>0.8965167164802551</v>
+        <v>0.7923307418823242</v>
       </c>
       <c r="I103">
-        <v>0.8699559231599172</v>
+        <v>0.810213033358256</v>
       </c>
       <c r="L103">
-        <v>51.87075397512696</v>
+        <v>40.18624198417067</v>
       </c>
       <c r="M103">
-        <v>52.70162293725976</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>38.37823148528638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.8869147896766663</v>
+        <v>0.7747505307197571</v>
       </c>
       <c r="C104">
-        <v>0.8872169256210327</v>
+        <v>0.7772505879402161</v>
       </c>
       <c r="D104">
-        <v>0.8819739818572998</v>
+        <v>0.7679359912872314</v>
       </c>
       <c r="E104">
-        <v>0.8819739818572998</v>
+        <v>0.7764844298362732</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.8811726062433026</v>
+        <v>0.7914618630498296</v>
       </c>
       <c r="H104">
-        <v>0.8981155604124069</v>
+        <v>0.7892360150814056</v>
       </c>
       <c r="I104">
-        <v>0.8712662100791931</v>
+        <v>0.807867721716563</v>
       </c>
       <c r="L104">
-        <v>49.29954156140496</v>
+        <v>41.69421208559594</v>
       </c>
       <c r="M104">
-        <v>51.17837569428839</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>39.28589016885012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.88189297914505</v>
+        <v>0.7764810919761658</v>
       </c>
       <c r="C105">
-        <v>0.8818933367729187</v>
+        <v>0.7853316068649292</v>
       </c>
       <c r="D105">
-        <v>0.8727874755859375</v>
+        <v>0.7764810919761658</v>
       </c>
       <c r="E105">
-        <v>0.8754746317863464</v>
+        <v>0.7842730283737183</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.8806546085653975</v>
+        <v>0.7908083326247285</v>
       </c>
       <c r="H105">
-        <v>0.8987426161766052</v>
+        <v>0.7866924673318862</v>
       </c>
       <c r="I105">
-        <v>0.8731984476248423</v>
+        <v>0.8058454314867656</v>
       </c>
       <c r="L105">
-        <v>45.96754863781863</v>
+        <v>48.58085662089041</v>
       </c>
       <c r="M105">
-        <v>49.18826423549677</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>43.51677535954086</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.8755561113357544</v>
+        <v>0.7850809693336487</v>
       </c>
       <c r="C106">
-        <v>0.8823022842407227</v>
+        <v>0.7934836149215698</v>
       </c>
       <c r="D106">
-        <v>0.870827317237854</v>
+        <v>0.7808875441551208</v>
       </c>
       <c r="E106">
-        <v>0.8741451501846313</v>
+        <v>0.7892200946807861</v>
       </c>
       <c r="F106">
-        <v>6306144</v>
+        <v>196352</v>
       </c>
       <c r="G106">
-        <v>0.8800628396216914</v>
+        <v>0.7906639473570973</v>
       </c>
       <c r="H106">
-        <v>0.8975675463676452</v>
+        <v>0.7854922115802765</v>
       </c>
       <c r="I106">
-        <v>0.8749587794144948</v>
+        <v>0.8036433299382527</v>
       </c>
       <c r="L106">
-        <v>45.26354535889731</v>
+        <v>52.58281613447726</v>
       </c>
       <c r="M106">
-        <v>48.77048670622472</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>46.08664482679672</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.8741700649261475</v>
+        <v>0.78928542137146</v>
       </c>
       <c r="C107">
-        <v>0.8755020499229431</v>
+        <v>0.7916207313537598</v>
       </c>
       <c r="D107">
-        <v>0.8658568263053894</v>
+        <v>0.7848547101020813</v>
       </c>
       <c r="E107">
-        <v>0.8665452599525452</v>
+        <v>0.7910999655723572</v>
       </c>
       <c r="F107">
-        <v>4228096</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0.8788339687426782</v>
+        <v>0.7907035853766664</v>
       </c>
       <c r="H107">
-        <v>0.8955534249544144</v>
+        <v>0.7845822125673294</v>
       </c>
       <c r="I107">
-        <v>0.8767779449621836</v>
+        <v>0.8017523884773254</v>
       </c>
       <c r="L107">
-        <v>41.20516705741801</v>
+        <v>54.10968488803145</v>
       </c>
       <c r="M107">
-        <v>46.34713661579772</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>47.07210968194666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.8664776086807251</v>
+        <v>0.7911282777786255</v>
       </c>
       <c r="C108">
-        <v>0.8742244243621826</v>
+        <v>0.7953143715858459</v>
       </c>
       <c r="D108">
-        <v>0.8629262447357178</v>
+        <v>0.7876100540161133</v>
       </c>
       <c r="E108">
-        <v>0.8734051585197449</v>
+        <v>0.7926754951477051</v>
       </c>
       <c r="F108">
-        <v>2915872</v>
+        <v>12246736</v>
       </c>
       <c r="G108">
-        <v>0.8783404405405933</v>
+        <v>0.7908828499013063</v>
       </c>
       <c r="H108">
-        <v>0.8941384851932526</v>
+        <v>0.7837877690792083</v>
       </c>
       <c r="I108">
-        <v>0.8794300893942515</v>
+        <v>0.7999095459779103</v>
       </c>
       <c r="L108">
-        <v>46.11156145818034</v>
+        <v>55.46190879466962</v>
       </c>
       <c r="M108">
-        <v>48.819208663104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>47.93113528758173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.8733846545219421</v>
+        <v>0.7928253412246704</v>
       </c>
       <c r="C109">
-        <v>0.8741182684898376</v>
+        <v>0.8062647581100464</v>
       </c>
       <c r="D109">
-        <v>0.8504966497421265</v>
+        <v>0.7927275896072388</v>
       </c>
       <c r="E109">
-        <v>0.8504966497421265</v>
+        <v>0.7954902648925781</v>
       </c>
       <c r="F109">
-        <v>5158496</v>
+        <v>9803280</v>
       </c>
       <c r="G109">
-        <v>0.8758091868316418</v>
+        <v>0.7913017058096037</v>
       </c>
       <c r="H109">
-        <v>0.889303594827652</v>
+        <v>0.7826419740915298</v>
       </c>
       <c r="I109">
-        <v>0.881227433681488</v>
+        <v>0.7980623205502828</v>
       </c>
       <c r="L109">
-        <v>35.10553525157796</v>
+        <v>57.9521434275716</v>
       </c>
       <c r="M109">
-        <v>41.87960585565289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>49.50782629644758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.8505331873893738</v>
+        <v>0.7954614758491516</v>
       </c>
       <c r="C110">
-        <v>0.8594828844070435</v>
+        <v>0.7962220311164856</v>
       </c>
       <c r="D110">
-        <v>0.8377258777618408</v>
+        <v>0.7892370223999023</v>
       </c>
       <c r="E110">
-        <v>0.8378424644470215</v>
+        <v>0.7941848635673523</v>
       </c>
       <c r="F110">
-        <v>30865920</v>
+        <v>3117504</v>
       </c>
       <c r="G110">
-        <v>0.872357666614858</v>
+        <v>0.791563811060308</v>
       </c>
       <c r="H110">
-        <v>0.8852772235870361</v>
+        <v>0.7819834619760513</v>
       </c>
       <c r="I110">
-        <v>0.882288948694865</v>
+        <v>0.7964471300443013</v>
       </c>
       <c r="L110">
-        <v>30.57111394124844</v>
+        <v>56.30949729293087</v>
       </c>
       <c r="M110">
-        <v>38.61436772287958</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>48.77024603272951</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.8377636671066284</v>
+        <v>0.7942778468132019</v>
       </c>
       <c r="C111">
-        <v>0.85892653465271</v>
+        <v>0.7959624528884888</v>
       </c>
       <c r="D111">
-        <v>0.8371360898017883</v>
+        <v>0.7823688983917236</v>
       </c>
       <c r="E111">
-        <v>0.855060338973999</v>
+        <v>0.7823688983917236</v>
       </c>
       <c r="F111">
-        <v>8106720</v>
+        <v>1742640</v>
       </c>
       <c r="G111">
-        <v>0.8707851822838708</v>
+        <v>0.7907279099086185</v>
       </c>
       <c r="H111">
-        <v>0.8812376350164414</v>
+        <v>0.7805294781923294</v>
       </c>
       <c r="I111">
-        <v>0.8836298664410909</v>
+        <v>0.7943478087584178</v>
       </c>
       <c r="L111">
-        <v>42.03231428518537</v>
+        <v>43.69693861560848</v>
       </c>
       <c r="M111">
-        <v>44.90838343351259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>42.58568471572739</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.855044424533844</v>
+        <v>0.7825165390968323</v>
       </c>
       <c r="C112">
-        <v>0.8621524572372437</v>
+        <v>0.7901445627212524</v>
       </c>
       <c r="D112">
-        <v>0.8532482981681824</v>
+        <v>0.7700153589248657</v>
       </c>
       <c r="E112">
-        <v>0.8570194244384766</v>
+        <v>0.7726184129714966</v>
       </c>
       <c r="F112">
-        <v>618016</v>
+        <v>20431392</v>
       </c>
       <c r="G112">
-        <v>0.8695337497524713</v>
+        <v>0.7890815920052437</v>
       </c>
       <c r="H112">
-        <v>0.8777181446552277</v>
+        <v>0.7802096158266068</v>
       </c>
       <c r="I112">
-        <v>0.884855572382609</v>
+        <v>0.7919285655021667</v>
       </c>
       <c r="L112">
-        <v>43.23187118271096</v>
+        <v>36.17485859651253</v>
       </c>
       <c r="M112">
-        <v>45.5919530531814</v>
+        <v>38.27263882985429</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4698,34 +4683,34 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.8569256067276001</v>
+        <v>0.772432804107666</v>
       </c>
       <c r="C113">
-        <v>0.8648053407669067</v>
+        <v>0.7785113453865051</v>
       </c>
       <c r="D113">
-        <v>0.8549599051475525</v>
+        <v>0.7639885544776917</v>
       </c>
       <c r="E113">
-        <v>0.862634539604187</v>
+        <v>0.7750182151794434</v>
       </c>
       <c r="F113">
-        <v>656576</v>
+        <v>14604768</v>
       </c>
       <c r="G113">
-        <v>0.8689065488299</v>
+        <v>0.7878031032028983</v>
       </c>
       <c r="H113">
-        <v>0.8750780194997787</v>
+        <v>0.7797235995531082</v>
       </c>
       <c r="I113">
-        <v>0.8854977309703826</v>
+        <v>0.7900016168753307</v>
       </c>
       <c r="L113">
-        <v>46.78282109787734</v>
+        <v>39.07860388811504</v>
       </c>
       <c r="M113">
-        <v>47.59886313655814</v>
+        <v>39.88635590550827</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4733,34 +4718,34 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.8625006675720215</v>
+        <v>0.775012731552124</v>
       </c>
       <c r="C114">
-        <v>0.8663680553436279</v>
+        <v>0.7753412127494812</v>
       </c>
       <c r="D114">
-        <v>0.8369727730751038</v>
+        <v>0.7513493299484253</v>
       </c>
       <c r="E114">
-        <v>0.8373624682426453</v>
+        <v>0.7646562457084656</v>
       </c>
       <c r="F114">
-        <v>25730336</v>
+        <v>19945376</v>
       </c>
       <c r="G114">
-        <v>0.8660389051401496</v>
+        <v>0.7856988434306771</v>
       </c>
       <c r="H114">
-        <v>0.8714721918106079</v>
+        <v>0.77908755838871</v>
       </c>
       <c r="I114">
-        <v>0.8850765764713288</v>
+        <v>0.787544192870458</v>
       </c>
       <c r="L114">
-        <v>35.52983363423304</v>
+        <v>32.00549073544978</v>
       </c>
       <c r="M114">
-        <v>40.37958908950191</v>
+        <v>35.56318969731083</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4768,34 +4753,37 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.8374537229537964</v>
+        <v>0.7644558548927307</v>
       </c>
       <c r="C115">
-        <v>0.8567601442337036</v>
+        <v>0.7759367227554321</v>
       </c>
       <c r="D115">
-        <v>0.8370814323425293</v>
+        <v>0.7498625516891479</v>
       </c>
       <c r="E115">
-        <v>0.8468437790870667</v>
+        <v>0.760784387588501</v>
       </c>
       <c r="F115">
-        <v>10756480</v>
+        <v>29881952</v>
       </c>
       <c r="G115">
-        <v>0.8642938936807784</v>
+        <v>0.7834338928995702</v>
       </c>
       <c r="H115">
-        <v>0.8675185292959213</v>
+        <v>0.7778289943933487</v>
       </c>
       <c r="I115">
-        <v>0.8845402518908183</v>
+        <v>0.7850655396779378</v>
       </c>
       <c r="L115">
-        <v>41.47175621645469</v>
+        <v>29.74251980998012</v>
       </c>
       <c r="M115">
-        <v>43.8220951655239</v>
+        <v>34.07691313453138</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4803,34 +4791,37 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.8468437790870667</v>
+        <v>0.7608360648155212</v>
       </c>
       <c r="C116">
-        <v>0.8554661273956299</v>
+        <v>0.7628534436225891</v>
       </c>
       <c r="D116">
-        <v>0.8398033380508423</v>
+        <v>0.7366510629653931</v>
       </c>
       <c r="E116">
-        <v>0.8449417352676392</v>
+        <v>0.7425321340560913</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>54301856</v>
       </c>
       <c r="G116">
-        <v>0.8625346065523111</v>
+        <v>0.7797155511865266</v>
       </c>
       <c r="H116">
-        <v>0.8644895732402802</v>
+        <v>0.7752323180437088</v>
       </c>
       <c r="I116">
-        <v>0.8827834248542785</v>
+        <v>0.7827091038227081</v>
       </c>
       <c r="L116">
-        <v>40.62670228787806</v>
+        <v>21.63129301975563</v>
       </c>
       <c r="M116">
-        <v>43.28217979468262</v>
+        <v>28.112359339176</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4838,34 +4829,37 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.8448100686073303</v>
+        <v>0.7426639199256897</v>
       </c>
       <c r="C117">
-        <v>0.8552831411361694</v>
+        <v>0.757850706577301</v>
       </c>
       <c r="D117">
-        <v>0.8446388840675354</v>
+        <v>0.7426091432571411</v>
       </c>
       <c r="E117">
-        <v>0.8552831411361694</v>
+        <v>0.7453902363777161</v>
       </c>
       <c r="F117">
-        <v>294240</v>
+        <v>32658560</v>
       </c>
       <c r="G117">
-        <v>0.861875382423571</v>
+        <v>0.7765950680220893</v>
       </c>
       <c r="H117">
-        <v>0.8628911256790162</v>
+        <v>0.7737568140029907</v>
       </c>
       <c r="I117">
-        <v>0.8810652732849121</v>
+        <v>0.7805787801742554</v>
       </c>
       <c r="L117">
-        <v>47.20665490755035</v>
+        <v>25.22370811277184</v>
       </c>
       <c r="M117">
-        <v>47.09849575614349</v>
+        <v>30.17339083698973</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4873,34 +4867,34 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.85544353723526</v>
+        <v>0.7457094192504883</v>
       </c>
       <c r="C118">
-        <v>0.8570289611816406</v>
+        <v>0.759171724319458</v>
       </c>
       <c r="D118">
-        <v>0.8442494869232178</v>
+        <v>0.7455147504806519</v>
       </c>
       <c r="E118">
-        <v>0.847828209400177</v>
+        <v>0.7572835683822632</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.8605983666941716</v>
+        <v>0.7748394771457415</v>
       </c>
       <c r="H118">
-        <v>0.8620678812265397</v>
+        <v>0.7737041175365448</v>
       </c>
       <c r="I118">
-        <v>0.879269415140152</v>
+        <v>0.7788694202899933</v>
       </c>
       <c r="L118">
-        <v>43.31374839020536</v>
+        <v>38.43526846963628</v>
       </c>
       <c r="M118">
-        <v>44.76037324774799</v>
+        <v>38.12339455803389</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4908,34 +4902,34 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.8477506637573242</v>
+        <v>0.7572168111801147</v>
       </c>
       <c r="C119">
-        <v>0.8539469838142395</v>
+        <v>0.7633376121520996</v>
       </c>
       <c r="D119">
-        <v>0.8451575636863708</v>
+        <v>0.7443134188652039</v>
       </c>
       <c r="E119">
-        <v>0.8479607701301575</v>
+        <v>0.7448561787605286</v>
       </c>
       <c r="F119">
-        <v>3955872</v>
+        <v>5281248</v>
       </c>
       <c r="G119">
-        <v>0.8594494942792612</v>
+        <v>0.7721137227470858</v>
       </c>
       <c r="H119">
-        <v>0.8614018619060516</v>
+        <v>0.7729043453931809</v>
       </c>
       <c r="I119">
-        <v>0.8759616255760193</v>
+        <v>0.776417754093806</v>
       </c>
       <c r="L119">
-        <v>43.40710743041608</v>
+        <v>31.82539828578856</v>
       </c>
       <c r="M119">
-        <v>44.81283637795166</v>
+        <v>33.79382443524061</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4943,34 +4937,37 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.8480733633041382</v>
+        <v>0.744964599609375</v>
       </c>
       <c r="C120">
-        <v>0.8531306982040405</v>
+        <v>0.7479580640792847</v>
       </c>
       <c r="D120">
-        <v>0.8304153680801392</v>
+        <v>0.7069292068481445</v>
       </c>
       <c r="E120">
-        <v>0.850907027721405</v>
+        <v>0.7105949521064758</v>
       </c>
       <c r="F120">
-        <v>15839648</v>
+        <v>71023584</v>
       </c>
       <c r="G120">
-        <v>0.8586729064103652</v>
+        <v>0.7665211072343031</v>
       </c>
       <c r="H120">
-        <v>0.8603842943906784</v>
+        <v>0.7702568799257279</v>
       </c>
       <c r="I120">
-        <v>0.8737128635247549</v>
+        <v>0.773192415634791</v>
       </c>
       <c r="L120">
-        <v>45.64543187439258</v>
+        <v>20.75503293500763</v>
       </c>
       <c r="M120">
-        <v>46.03948468306593</v>
+        <v>25.27247071881393</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4978,34 +4975,37 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.8508887887001038</v>
+        <v>0.7106848955154419</v>
       </c>
       <c r="C121">
-        <v>0.8518621325492859</v>
+        <v>0.716633141040802</v>
       </c>
       <c r="D121">
-        <v>0.8394472002983093</v>
+        <v>0.6932870745658875</v>
       </c>
       <c r="E121">
-        <v>0.8426405787467957</v>
+        <v>0.7146639823913574</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>36125984</v>
       </c>
       <c r="G121">
-        <v>0.8572154220773134</v>
+        <v>0.7618068231576717</v>
       </c>
       <c r="H121">
-        <v>0.8588766545057297</v>
+        <v>0.7672958046197891</v>
       </c>
       <c r="I121">
-        <v>0.8706058124701183</v>
+        <v>0.7699662625789643</v>
       </c>
       <c r="L121">
-        <v>40.57940367022128</v>
+        <v>24.27445266437826</v>
       </c>
       <c r="M121">
-        <v>43.14203705333934</v>
+        <v>27.60721453850852</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5013,34 +5013,37 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.8426138162612915</v>
+        <v>0.7149348855018616</v>
       </c>
       <c r="C122">
-        <v>0.8530402183532715</v>
+        <v>0.7188519239425659</v>
       </c>
       <c r="D122">
-        <v>0.8426138162612915</v>
+        <v>0.7050574421882629</v>
       </c>
       <c r="E122">
-        <v>0.8453485369682312</v>
+        <v>0.7054424285888672</v>
       </c>
       <c r="F122">
-        <v>6108704</v>
+        <v>5361632</v>
       </c>
       <c r="G122">
-        <v>0.8561366143401241</v>
+        <v>0.7566827872877804</v>
       </c>
       <c r="H122">
-        <v>0.8570344001054764</v>
+        <v>0.7637236416339874</v>
       </c>
       <c r="I122">
-        <v>0.8678704559803009</v>
+        <v>0.7675138215223948</v>
       </c>
       <c r="L122">
-        <v>42.91432842842695</v>
+        <v>21.80540620945662</v>
       </c>
       <c r="M122">
-        <v>44.37698129507606</v>
+        <v>25.65123312207669</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5048,34 +5051,34 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.8451029062271118</v>
+        <v>0.7053582668304443</v>
       </c>
       <c r="C123">
-        <v>0.8470944762229919</v>
+        <v>0.7250022888183594</v>
       </c>
       <c r="D123">
-        <v>0.8410468697547913</v>
+        <v>0.7046474814414978</v>
       </c>
       <c r="E123">
-        <v>0.8451957106590271</v>
+        <v>0.7241225838661194</v>
       </c>
       <c r="F123">
-        <v>1000832</v>
+        <v>1996288</v>
       </c>
       <c r="G123">
-        <v>0.8551419867327515</v>
+        <v>0.7537227687949021</v>
       </c>
       <c r="H123">
-        <v>0.8549454778432846</v>
+        <v>0.761188018321991</v>
       </c>
       <c r="I123">
-        <v>0.865529078245163</v>
+        <v>0.7654932896296184</v>
       </c>
       <c r="L123">
-        <v>42.80753002952997</v>
+        <v>36.51992725902873</v>
       </c>
       <c r="M123">
-        <v>44.31847781008926</v>
+        <v>35.60436235142242</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5083,34 +5086,34 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.845193088054657</v>
+        <v>0.7241731286048889</v>
       </c>
       <c r="C124">
-        <v>0.8479464054107666</v>
+        <v>0.7289488911628723</v>
       </c>
       <c r="D124">
-        <v>0.8327546715736389</v>
+        <v>0.7164214849472046</v>
       </c>
       <c r="E124">
-        <v>0.8328266739845276</v>
+        <v>0.7168525457382202</v>
       </c>
       <c r="F124">
-        <v>5420096</v>
+        <v>6237280</v>
       </c>
       <c r="G124">
-        <v>0.8531133219374585</v>
+        <v>0.7503709303352036</v>
       </c>
       <c r="H124">
-        <v>0.852488112449646</v>
+        <v>0.7582064241170883</v>
       </c>
       <c r="I124">
-        <v>0.8629739999771118</v>
+        <v>0.7634758055210114</v>
       </c>
       <c r="L124">
-        <v>34.89944668875009</v>
+        <v>33.74006045058767</v>
       </c>
       <c r="M124">
-        <v>39.75082992803144</v>
+        <v>33.71279618256702</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5118,34 +5121,34 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.832826554775238</v>
+        <v>0.7168074250221252</v>
       </c>
       <c r="C125">
-        <v>0.8412032723426819</v>
+        <v>0.7280101776123047</v>
       </c>
       <c r="D125">
-        <v>0.8306819796562195</v>
+        <v>0.7166125774383545</v>
       </c>
       <c r="E125">
-        <v>0.8383789658546448</v>
+        <v>0.7240604162216187</v>
       </c>
       <c r="F125">
-        <v>4467488</v>
+        <v>3267296</v>
       </c>
       <c r="G125">
-        <v>0.851773835020839</v>
+        <v>0.7479790654157868</v>
       </c>
       <c r="H125">
-        <v>0.8506333291530609</v>
+        <v>0.7551957935094833</v>
       </c>
       <c r="I125">
-        <v>0.8600560645262401</v>
+        <v>0.761412630478541</v>
       </c>
       <c r="L125">
-        <v>40.45450837433195</v>
+        <v>38.92540355916702</v>
       </c>
       <c r="M125">
-        <v>42.6101574766473</v>
+        <v>37.27108402923395</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5153,34 +5156,34 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.838425874710083</v>
+        <v>0.7240866422653198</v>
       </c>
       <c r="C126">
-        <v>0.8495460748672485</v>
+        <v>0.7448761463165283</v>
       </c>
       <c r="D126">
-        <v>0.8304399847984314</v>
+        <v>0.7234331965446472</v>
       </c>
       <c r="E126">
-        <v>0.8351439833641052</v>
+        <v>0.7389507293701172</v>
       </c>
       <c r="F126">
-        <v>16988832</v>
+        <v>2468896</v>
       </c>
       <c r="G126">
-        <v>0.8502620303247723</v>
+        <v>0.7471583075934531</v>
       </c>
       <c r="H126">
-        <v>0.8486832708120347</v>
+        <v>0.7526823252439498</v>
       </c>
       <c r="I126">
-        <v>0.8577101687590282</v>
+        <v>0.7595621327559153</v>
       </c>
       <c r="L126">
-        <v>38.31167914393578</v>
+        <v>48.32403167597491</v>
       </c>
       <c r="M126">
-        <v>41.37799876517317</v>
+        <v>43.96323835421834</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5188,37 +5191,34 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.8352447748184204</v>
+        <v>0.7391049265861511</v>
       </c>
       <c r="C127">
-        <v>0.8372735381126404</v>
+        <v>0.740872323513031</v>
       </c>
       <c r="D127">
-        <v>0.8111101984977722</v>
+        <v>0.7253094911575317</v>
       </c>
       <c r="E127">
-        <v>0.8132252097129822</v>
+        <v>0.7306415438652039</v>
       </c>
       <c r="F127">
-        <v>59613088</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.8468950466327914</v>
+        <v>0.7456567836181577</v>
       </c>
       <c r="H127">
-        <v>0.8460172683000564</v>
+        <v>0.7496594041585922</v>
       </c>
       <c r="I127">
-        <v>0.8552426060040792</v>
+        <v>0.7580868403116862</v>
       </c>
       <c r="L127">
-        <v>27.29229124300862</v>
+        <v>44.06684258954269</v>
       </c>
       <c r="M127">
-        <v>34.16845400443945</v>
-      </c>
-      <c r="N127" t="s">
-        <v>195</v>
+        <v>41.3144947676785</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5226,1831 +5226,1822 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.8131894469261169</v>
+        <v>0.7306730151176453</v>
       </c>
       <c r="C128">
-        <v>0.8160291314125061</v>
+        <v>0.7358577251434326</v>
       </c>
       <c r="D128">
-        <v>0.8031207323074341</v>
+        <v>0.7248525619506836</v>
       </c>
       <c r="E128">
-        <v>0.8092999458312988</v>
+        <v>0.7293298244476318</v>
       </c>
       <c r="F128">
-        <v>50800768</v>
+        <v>3122528</v>
       </c>
       <c r="G128">
-        <v>0.843477310196292</v>
+        <v>0.7441725146026552</v>
       </c>
       <c r="H128">
-        <v>0.8428120076656341</v>
+        <v>0.7464921206235886</v>
       </c>
       <c r="I128">
-        <v>0.8534095009167989</v>
+        <v>0.7571199178695679</v>
       </c>
       <c r="L128">
-        <v>25.79740731101921</v>
+        <v>43.38800716413017</v>
       </c>
       <c r="M128">
-        <v>33.05762478285688</v>
-      </c>
-      <c r="N128" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>40.89561043775534</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.8095293045043945</v>
+        <v>0.7294840812683105</v>
       </c>
       <c r="C129">
-        <v>0.8158758878707886</v>
+        <v>0.7394264936447144</v>
       </c>
       <c r="D129">
-        <v>0.8018952012062073</v>
+        <v>0.7245655655860901</v>
       </c>
       <c r="E129">
-        <v>0.8085643649101257</v>
+        <v>0.7383704781532288</v>
       </c>
       <c r="F129">
-        <v>21087840</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.8403034060793677</v>
+        <v>0.7436450567436164</v>
       </c>
       <c r="H129">
-        <v>0.8407153934240341</v>
+        <v>0.7436361312866211</v>
       </c>
       <c r="I129">
-        <v>0.8516522745291392</v>
+        <v>0.7563705464204152</v>
       </c>
       <c r="L129">
-        <v>25.50291670224811</v>
+        <v>49.42846813055857</v>
       </c>
       <c r="M129">
-        <v>32.84214833543155</v>
-      </c>
-      <c r="N129" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>45.03221029036037</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.8085793256759644</v>
+        <v>0.7383787035942078</v>
       </c>
       <c r="C130">
-        <v>0.8191888332366943</v>
+        <v>0.7386022210121155</v>
       </c>
       <c r="D130">
-        <v>0.8085793256759644</v>
+        <v>0.726310133934021</v>
       </c>
       <c r="E130">
-        <v>0.8184061646461487</v>
+        <v>0.730155348777771</v>
       </c>
       <c r="F130">
-        <v>5185600</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.8383127477672569</v>
+        <v>0.7424187196558122</v>
       </c>
       <c r="H130">
-        <v>0.8397435784339905</v>
+        <v>0.7404346555471421</v>
       </c>
       <c r="I130">
-        <v>0.8498905340830485</v>
+        <v>0.7552575826644897</v>
       </c>
       <c r="L130">
-        <v>36.426563876834</v>
+        <v>44.56725542317881</v>
       </c>
       <c r="M130">
-        <v>38.60806344909343</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>42.14568013426501</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.8184516429901123</v>
+        <v>0.730141282081604</v>
       </c>
       <c r="C131">
-        <v>0.8191344738006592</v>
+        <v>0.7323049902915955</v>
       </c>
       <c r="D131">
-        <v>0.8029430508613586</v>
+        <v>0.7237656116485596</v>
       </c>
       <c r="E131">
-        <v>0.8073551058769226</v>
+        <v>0.7311617732048035</v>
       </c>
       <c r="F131">
-        <v>7094464</v>
+        <v>963488</v>
       </c>
       <c r="G131">
-        <v>0.8354984166863174</v>
+        <v>0.7413953608875387</v>
       </c>
       <c r="H131">
-        <v>0.8373583167791366</v>
+        <v>0.737874299287796</v>
       </c>
       <c r="I131">
-        <v>0.8477092583974203</v>
+        <v>0.7538334588209789</v>
       </c>
       <c r="L131">
-        <v>30.73376270549905</v>
+        <v>45.30857588846384</v>
       </c>
       <c r="M131">
-        <v>34.97674081575398</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>42.63083767838408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.8075441122055054</v>
+        <v>0.7312006950378418</v>
       </c>
       <c r="C132">
-        <v>0.8120031356811523</v>
+        <v>0.7372666597366333</v>
       </c>
       <c r="D132">
-        <v>0.7999184727668762</v>
+        <v>0.724233865737915</v>
       </c>
       <c r="E132">
-        <v>0.8114485740661621</v>
+        <v>0.7356483340263367</v>
       </c>
       <c r="F132">
-        <v>5316352</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.8333120673572123</v>
+        <v>0.7408729039001567</v>
       </c>
       <c r="H132">
-        <v>0.8350797742605209</v>
+        <v>0.736025795340538</v>
       </c>
       <c r="I132">
-        <v>0.8453510900338491</v>
+        <v>0.7524588803450266</v>
       </c>
       <c r="L132">
-        <v>34.96891345612526</v>
+        <v>48.74614216945899</v>
       </c>
       <c r="M132">
-        <v>37.32816741702261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>44.85108346782213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.8114742040634155</v>
+        <v>0.7356778979301453</v>
       </c>
       <c r="C133">
-        <v>0.8123700022697449</v>
+        <v>0.736988365650177</v>
       </c>
       <c r="D133">
-        <v>0.7790156602859497</v>
+        <v>0.7177643775939941</v>
       </c>
       <c r="E133">
-        <v>0.7790156602859497</v>
+        <v>0.7195582985877991</v>
       </c>
       <c r="F133">
-        <v>23941088</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.8283760303507339</v>
+        <v>0.7389352125081241</v>
       </c>
       <c r="H133">
-        <v>0.8308988302946091</v>
+        <v>0.7332527995109558</v>
       </c>
       <c r="I133">
-        <v>0.8417524735132853</v>
+        <v>0.750616321961085</v>
       </c>
       <c r="L133">
-        <v>22.63364055531035</v>
+        <v>38.88531343327208</v>
       </c>
       <c r="M133">
-        <v>28.52610567153721</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>39.01896407627569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.7792492508888245</v>
+        <v>0.7194842100143433</v>
       </c>
       <c r="C134">
-        <v>0.7898013591766357</v>
+        <v>0.7331962585449219</v>
       </c>
       <c r="D134">
-        <v>0.7768621444702148</v>
+        <v>0.7180178165435791</v>
       </c>
       <c r="E134">
-        <v>0.7847385406494141</v>
+        <v>0.7321156859397888</v>
       </c>
       <c r="F134">
-        <v>2574848</v>
+        <v>251024</v>
       </c>
       <c r="G134">
-        <v>0.8244089858324321</v>
+        <v>0.7383152555473664</v>
       </c>
       <c r="H134">
-        <v>0.8282676339149475</v>
+        <v>0.731625771522522</v>
       </c>
       <c r="I134">
-        <v>0.8385112921396891</v>
+        <v>0.7491373638312022</v>
       </c>
       <c r="L134">
-        <v>27.6966230680796</v>
+        <v>48.10278903628193</v>
       </c>
       <c r="M134">
-        <v>31.59139760410624</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>45.02696705392193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.7847161293029785</v>
+        <v>0.7322178483009338</v>
       </c>
       <c r="C135">
-        <v>0.7877999544143677</v>
+        <v>0.7337536215782166</v>
       </c>
       <c r="D135">
-        <v>0.7663691639900208</v>
+        <v>0.7284735441207886</v>
       </c>
       <c r="E135">
-        <v>0.7773770689964294</v>
+        <v>0.7323244214057922</v>
       </c>
       <c r="F135">
-        <v>14467968</v>
+        <v>3529168</v>
       </c>
       <c r="G135">
-        <v>0.8201333570291591</v>
+        <v>0.7377706342617688</v>
       </c>
       <c r="H135">
-        <v>0.8247942984104156</v>
+        <v>0.7302027732133866</v>
       </c>
       <c r="I135">
-        <v>0.8352413733800252</v>
+        <v>0.747405743598938</v>
       </c>
       <c r="L135">
-        <v>25.30061717957694</v>
+        <v>48.24875000246815</v>
       </c>
       <c r="M135">
-        <v>29.81980500993235</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>45.12375057122631</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.7773982286453247</v>
+        <v>0.7322330474853516</v>
       </c>
       <c r="C136">
-        <v>0.7884640693664551</v>
+        <v>0.73885178565979</v>
       </c>
       <c r="D136">
-        <v>0.7767966389656067</v>
+        <v>0.7275215983390808</v>
       </c>
       <c r="E136">
-        <v>0.7859556674957275</v>
+        <v>0.7368353605270386</v>
       </c>
       <c r="F136">
-        <v>890688</v>
+        <v>3004160</v>
       </c>
       <c r="G136">
-        <v>0.8170262943443016</v>
+        <v>0.7376856093767933</v>
       </c>
       <c r="H136">
-        <v>0.8218449950218201</v>
+        <v>0.7299179345369339</v>
       </c>
       <c r="I136">
-        <v>0.8323017239570618</v>
+        <v>0.7456595857938131</v>
       </c>
       <c r="L136">
-        <v>32.90958518727969</v>
+        <v>51.56091443508977</v>
       </c>
       <c r="M136">
-        <v>34.4341403972576</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>47.28374034410965</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.7860368490219116</v>
+        <v>0.7368234992027283</v>
       </c>
       <c r="C137">
-        <v>0.7958347797393799</v>
+        <v>0.7385374903678894</v>
       </c>
       <c r="D137">
-        <v>0.7837353348731995</v>
+        <v>0.7322714924812317</v>
       </c>
       <c r="E137">
-        <v>0.7944656610488892</v>
+        <v>0.7327390909194946</v>
       </c>
       <c r="F137">
-        <v>4407104</v>
+        <v>11115968</v>
       </c>
       <c r="G137">
-        <v>0.8149753276810823</v>
+        <v>0.7372359258806752</v>
       </c>
       <c r="H137">
-        <v>0.818804121017456</v>
+        <v>0.7292853772640229</v>
       </c>
       <c r="I137">
-        <v>0.8298990706602732</v>
+        <v>0.7437142233053843</v>
       </c>
       <c r="L137">
-        <v>39.75776608504311</v>
+        <v>48.3965975749875</v>
       </c>
       <c r="M137">
-        <v>38.73730776141674</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>45.53114328111736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.7944708466529846</v>
+        <v>0.7327504754066467</v>
       </c>
       <c r="C138">
-        <v>0.7944708466529846</v>
+        <v>0.7524216175079346</v>
       </c>
       <c r="D138">
-        <v>0.7749003171920776</v>
+        <v>0.7327079176902771</v>
       </c>
       <c r="E138">
-        <v>0.7749003171920776</v>
+        <v>0.7520225644111633</v>
       </c>
       <c r="F138">
-        <v>16785984</v>
+        <v>14753808</v>
       </c>
       <c r="G138">
-        <v>0.8113321449093546</v>
+        <v>0.7385801657470832</v>
       </c>
       <c r="H138">
-        <v>0.8151577264070511</v>
+        <v>0.7290223270654679</v>
       </c>
       <c r="I138">
-        <v>0.826615575949351</v>
+        <v>0.7423591256141663</v>
       </c>
       <c r="L138">
-        <v>31.45360217743614</v>
+        <v>61.05459126430203</v>
       </c>
       <c r="M138">
-        <v>33.32241474195969</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>54.14735002396913</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.7747666239738464</v>
+        <v>0.7520033717155457</v>
       </c>
       <c r="C139">
-        <v>0.7747666239738464</v>
+        <v>0.7543970942497253</v>
       </c>
       <c r="D139">
-        <v>0.7442057132720947</v>
+        <v>0.7457355260848999</v>
       </c>
       <c r="E139">
-        <v>0.7583374977111816</v>
+        <v>0.7543970942497253</v>
       </c>
       <c r="F139">
-        <v>48885184</v>
+        <v>8700192</v>
       </c>
       <c r="G139">
-        <v>0.8065144497095207</v>
+        <v>0.7400180683382325</v>
       </c>
       <c r="H139">
-        <v>0.8106765627861023</v>
+        <v>0.7294993728399277</v>
       </c>
       <c r="I139">
-        <v>0.8235436042149862</v>
+        <v>0.7409893532594045</v>
       </c>
       <c r="L139">
-        <v>26.23499877852112</v>
+        <v>62.33448905439545</v>
       </c>
       <c r="M139">
-        <v>29.55592745705549</v>
-      </c>
-      <c r="N139" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>55.08944210036631</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.7583690285682678</v>
+        <v>0.7544138431549072</v>
       </c>
       <c r="C140">
-        <v>0.762961745262146</v>
+        <v>0.7592720985412598</v>
       </c>
       <c r="D140">
-        <v>0.7503939867019653</v>
+        <v>0.7541996240615845</v>
       </c>
       <c r="E140">
-        <v>0.7608516216278076</v>
+        <v>0.7574891448020935</v>
       </c>
       <c r="F140">
-        <v>48187712</v>
+        <v>5282512</v>
       </c>
       <c r="G140">
-        <v>0.802363283520274</v>
+        <v>0.7416063480167653</v>
       </c>
       <c r="H140">
-        <v>0.8061737924814224</v>
+        <v>0.7318440824747086</v>
       </c>
       <c r="I140">
-        <v>0.820977242787679</v>
+        <v>0.7397661626338958</v>
       </c>
       <c r="L140">
-        <v>28.2673816230907</v>
+        <v>64.06455830432974</v>
       </c>
       <c r="M140">
-        <v>30.8339257135499</v>
-      </c>
-      <c r="N140" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>56.34719324610202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.7610301375389099</v>
+        <v>0.7574891448020935</v>
       </c>
       <c r="C141">
-        <v>0.7640538215637207</v>
+        <v>0.7618679404258728</v>
       </c>
       <c r="D141">
-        <v>0.7516828179359436</v>
+        <v>0.7547526955604553</v>
       </c>
       <c r="E141">
-        <v>0.7635442614555359</v>
+        <v>0.7591072916984558</v>
       </c>
       <c r="F141">
-        <v>24902080</v>
+        <v>5119216</v>
       </c>
       <c r="G141">
-        <v>0.7988342815143887</v>
+        <v>0.743197342896919</v>
       </c>
       <c r="H141">
-        <v>0.8022189766168595</v>
+        <v>0.7340662479400635</v>
       </c>
       <c r="I141">
-        <v>0.8179267068703969</v>
+        <v>0.7389907757441203</v>
       </c>
       <c r="L141">
-        <v>30.57217930191353</v>
+        <v>65.01074789273218</v>
       </c>
       <c r="M141">
-        <v>32.25155093870061</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>57.02548001919079</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.7634652256965637</v>
+        <v>0.759003221988678</v>
       </c>
       <c r="C142">
-        <v>0.7793404459953308</v>
+        <v>0.7648525238037109</v>
       </c>
       <c r="D142">
-        <v>0.7634652256965637</v>
+        <v>0.7580389976501465</v>
       </c>
       <c r="E142">
-        <v>0.7738854885101318</v>
+        <v>0.7645242810249329</v>
       </c>
       <c r="F142">
-        <v>20437856</v>
+        <v>4686912</v>
       </c>
       <c r="G142">
-        <v>0.7965662094230926</v>
+        <v>0.7451361554540111</v>
       </c>
       <c r="H142">
-        <v>0.7986458241939545</v>
+        <v>0.7370203405618667</v>
       </c>
       <c r="I142">
-        <v>0.8151555756727854</v>
+        <v>0.7387209713459015</v>
       </c>
       <c r="L142">
-        <v>39.03547730210816</v>
+        <v>68.1673545456751</v>
       </c>
       <c r="M142">
-        <v>37.54584583733828</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>59.30511702285947</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.7737801074981689</v>
+        <v>0.7645168304443359</v>
       </c>
       <c r="C143">
-        <v>0.7768856883049011</v>
+        <v>0.7655520439147949</v>
       </c>
       <c r="D143">
-        <v>0.7630687355995178</v>
+        <v>0.7566757798194885</v>
       </c>
       <c r="E143">
-        <v>0.7768856883049011</v>
+        <v>0.7574809193611145</v>
       </c>
       <c r="F143">
-        <v>3628064</v>
+        <v>4726144</v>
       </c>
       <c r="G143">
-        <v>0.7947770711396207</v>
+        <v>0.7462584067182932</v>
       </c>
       <c r="H143">
-        <v>0.7952303230762482</v>
+        <v>0.7386882573366165</v>
       </c>
       <c r="I143">
-        <v>0.8122972806294759</v>
+        <v>0.7381363948186238</v>
       </c>
       <c r="L143">
-        <v>41.36823532211783</v>
+        <v>60.2203475171609</v>
       </c>
       <c r="M143">
-        <v>39.03437245832382</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>55.20461753804884</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.7768990397453308</v>
+        <v>0.7575511336326599</v>
       </c>
       <c r="C144">
-        <v>0.7782284021377563</v>
+        <v>0.7657836675643921</v>
       </c>
       <c r="D144">
-        <v>0.771350622177124</v>
+        <v>0.7563629746437073</v>
       </c>
       <c r="E144">
-        <v>0.7748350501060486</v>
+        <v>0.7654497027397156</v>
       </c>
       <c r="F144">
-        <v>2007264</v>
+        <v>1854560</v>
       </c>
       <c r="G144">
-        <v>0.7929641601365687</v>
+        <v>0.748003069992968</v>
       </c>
       <c r="H144">
-        <v>0.7923307418823242</v>
+        <v>0.7411181151866912</v>
       </c>
       <c r="I144">
-        <v>0.810213033358256</v>
+        <v>0.7381628433863322</v>
       </c>
       <c r="L144">
-        <v>40.1858552082209</v>
+        <v>65.36036935415729</v>
       </c>
       <c r="M144">
-        <v>38.36137566124918</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>58.68516331609042</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.7747505307197571</v>
+        <v>0.7655029892921448</v>
       </c>
       <c r="C145">
-        <v>0.7772505879402161</v>
+        <v>0.7802848219871521</v>
       </c>
       <c r="D145">
-        <v>0.7679359912872314</v>
+        <v>0.7655029892921448</v>
       </c>
       <c r="E145">
-        <v>0.7764844298362732</v>
+        <v>0.7761166095733643</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>5215680</v>
       </c>
       <c r="G145">
-        <v>0.7914660028365418</v>
+        <v>0.7505588463184585</v>
       </c>
       <c r="H145">
-        <v>0.7892360150814056</v>
+        <v>0.7437209248542785</v>
       </c>
       <c r="I145">
-        <v>0.807867721716563</v>
+        <v>0.7386739174524943</v>
       </c>
       <c r="L145">
-        <v>41.69381201695236</v>
+        <v>71.00272187640851</v>
       </c>
       <c r="M145">
-        <v>39.26835446476719</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>62.84660463040728</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.7764810919761658</v>
+        <v>0.7761272788047791</v>
       </c>
       <c r="C146">
-        <v>0.7853316068649292</v>
+        <v>0.7866577506065369</v>
       </c>
       <c r="D146">
-        <v>0.7764810919761658</v>
+        <v>0.7761272788047791</v>
       </c>
       <c r="E146">
-        <v>0.7842730283737183</v>
+        <v>0.7834607362747192</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>4772656</v>
       </c>
       <c r="G146">
-        <v>0.7908120960671942</v>
+        <v>0.7535499272235731</v>
       </c>
       <c r="H146">
-        <v>0.7866924673318862</v>
+        <v>0.7459464251995087</v>
       </c>
       <c r="I146">
-        <v>0.8058454314867656</v>
+        <v>0.7400382041931153</v>
       </c>
       <c r="L146">
-        <v>48.58041099810318</v>
+        <v>74.25132083668343</v>
       </c>
       <c r="M146">
-        <v>43.4964363391032</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>65.42852025202717</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.7850809693336487</v>
+        <v>0.7834486961364746</v>
       </c>
       <c r="C147">
-        <v>0.7934836149215698</v>
+        <v>0.7882840633392334</v>
       </c>
       <c r="D147">
-        <v>0.7808875441551208</v>
+        <v>0.7834486961364746</v>
       </c>
       <c r="E147">
-        <v>0.7892200946807861</v>
+        <v>0.7878678441047668</v>
       </c>
       <c r="F147">
-        <v>196352</v>
+        <v>1340464</v>
       </c>
       <c r="G147">
-        <v>0.7906673686684298</v>
+        <v>0.756669737849136</v>
       </c>
       <c r="H147">
-        <v>0.7854922115802765</v>
+        <v>0.7488077402114868</v>
       </c>
       <c r="I147">
-        <v>0.8036433299382527</v>
+        <v>0.7414541244506836</v>
       </c>
       <c r="L147">
-        <v>52.58235545991618</v>
+        <v>76.06181110570613</v>
       </c>
       <c r="M147">
-        <v>46.06489716988531</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>66.91439046112497</v>
+      </c>
+      <c r="O147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.78928542137146</v>
+        <v>0.7880227565765381</v>
       </c>
       <c r="C148">
-        <v>0.7916207313537598</v>
+        <v>0.7996007800102234</v>
       </c>
       <c r="D148">
-        <v>0.7848547101020813</v>
+        <v>0.7849690914154053</v>
       </c>
       <c r="E148">
-        <v>0.7910999655723572</v>
+        <v>0.7996007800102234</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>14380288</v>
       </c>
       <c r="G148">
-        <v>0.7907066956596959</v>
+        <v>0.7605725598637804</v>
       </c>
       <c r="H148">
-        <v>0.7845822125673294</v>
+        <v>0.7523212879896164</v>
       </c>
       <c r="I148">
-        <v>0.8017523884773254</v>
+        <v>0.7428646981716156</v>
       </c>
       <c r="L148">
-        <v>54.10922068324761</v>
+        <v>80.22608626495197</v>
       </c>
       <c r="M148">
-        <v>47.0498808268834</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>70.54410770494009</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.7911282777786255</v>
+        <v>0.7995988130569458</v>
       </c>
       <c r="C149">
-        <v>0.7953143715858459</v>
+        <v>0.8051266670227051</v>
       </c>
       <c r="D149">
-        <v>0.7876100540161133</v>
+        <v>0.7953193187713623</v>
       </c>
       <c r="E149">
-        <v>0.7926754951477051</v>
+        <v>0.8001176714897156</v>
       </c>
       <c r="F149">
-        <v>12246736</v>
+        <v>21390768</v>
       </c>
       <c r="G149">
-        <v>0.7908856774313331</v>
+        <v>0.7641675700115926</v>
       </c>
       <c r="H149">
-        <v>0.7837877690792083</v>
+        <v>0.7554086476564408</v>
       </c>
       <c r="I149">
-        <v>0.7999095459779103</v>
+        <v>0.7447067479292552</v>
       </c>
       <c r="L149">
-        <v>55.46144248380679</v>
+        <v>80.39511387474668</v>
       </c>
       <c r="M149">
-        <v>47.90851364419483</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>70.69662834050273</v>
+      </c>
+      <c r="O149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.7928253412246704</v>
+        <v>0.800119161605835</v>
       </c>
       <c r="C150">
-        <v>0.8062647581100464</v>
+        <v>0.8097074031829834</v>
       </c>
       <c r="D150">
-        <v>0.7927275896072388</v>
+        <v>0.7986388802528381</v>
       </c>
       <c r="E150">
-        <v>0.7954902648925781</v>
+        <v>0.7993451356887817</v>
       </c>
       <c r="F150">
-        <v>9803280</v>
+        <v>24549904</v>
       </c>
       <c r="G150">
-        <v>0.7913042762914462</v>
+        <v>0.7673655305277007</v>
       </c>
       <c r="H150">
-        <v>0.7826419740915298</v>
+        <v>0.7588681370019913</v>
       </c>
       <c r="I150">
-        <v>0.7980623205502828</v>
+        <v>0.7476650873819987</v>
       </c>
       <c r="L150">
-        <v>57.95167574600618</v>
+        <v>79.2559953789339</v>
       </c>
       <c r="M150">
-        <v>49.48454835900358</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>70.11230318695249</v>
+      </c>
+      <c r="O150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.7954614758491516</v>
+        <v>0.7993444204330444</v>
       </c>
       <c r="C151">
-        <v>0.7962220311164856</v>
+        <v>0.8035094738006592</v>
       </c>
       <c r="D151">
-        <v>0.7892370223999023</v>
+        <v>0.7903121709823608</v>
       </c>
       <c r="E151">
-        <v>0.7941848635673523</v>
+        <v>0.7946080565452576</v>
       </c>
       <c r="F151">
-        <v>3117504</v>
+        <v>9687840</v>
       </c>
       <c r="G151">
-        <v>0.7915661478619831</v>
+        <v>0.769842123802024</v>
       </c>
       <c r="H151">
-        <v>0.7819834619760513</v>
+        <v>0.762040451169014</v>
       </c>
       <c r="I151">
-        <v>0.7964471300443013</v>
+        <v>0.7503298898537953</v>
       </c>
       <c r="J151">
-        <v>0.8785866916179657</v>
+        <v>0.8140213477611542</v>
       </c>
       <c r="L151">
-        <v>56.30906045686425</v>
+        <v>72.19907184243156</v>
       </c>
       <c r="M151">
-        <v>48.74793245921394</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>66.48363429827468</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.7942778468132019</v>
+        <v>0.794769823551178</v>
       </c>
       <c r="C152">
-        <v>0.7959624528884888</v>
+        <v>0.7987790107727051</v>
       </c>
       <c r="D152">
-        <v>0.7823688983917236</v>
+        <v>0.7845602631568909</v>
       </c>
       <c r="E152">
-        <v>0.7823688983917236</v>
+        <v>0.7879033088684082</v>
       </c>
       <c r="F152">
-        <v>1742640</v>
+        <v>5390624</v>
       </c>
       <c r="G152">
-        <v>0.7907300342737776</v>
+        <v>0.7714840497171499</v>
       </c>
       <c r="H152">
-        <v>0.7805294781923294</v>
+        <v>0.7646531999111176</v>
       </c>
       <c r="I152">
-        <v>0.7943478087584178</v>
+        <v>0.7530785858631134</v>
       </c>
       <c r="J152">
-        <v>0.8773122837606645</v>
+        <v>0.8136754134711841</v>
       </c>
       <c r="L152">
-        <v>43.69670442791177</v>
+        <v>63.23391885665635</v>
       </c>
       <c r="M152">
-        <v>42.57072284218588</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>61.6223829454323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.7825165390968323</v>
+        <v>0.7878603339195251</v>
       </c>
       <c r="C153">
-        <v>0.7901445627212524</v>
+        <v>0.7923560738563538</v>
       </c>
       <c r="D153">
-        <v>0.7700153589248657</v>
+        <v>0.7823612689971924</v>
       </c>
       <c r="E153">
-        <v>0.7726184129714966</v>
+        <v>0.7893894910812378</v>
       </c>
       <c r="F153">
-        <v>20431392</v>
+        <v>14264544</v>
       </c>
       <c r="G153">
-        <v>0.7890835232462975</v>
+        <v>0.7731118171138851</v>
       </c>
       <c r="H153">
-        <v>0.7802096158266068</v>
+        <v>0.7681447595357895</v>
       </c>
       <c r="I153">
-        <v>0.7919285655021667</v>
+        <v>0.7552541494369507</v>
       </c>
       <c r="J153">
-        <v>0.8759256099753776</v>
+        <v>0.8133537456249597</v>
       </c>
       <c r="L153">
-        <v>36.17471646709987</v>
+        <v>64.33817986863673</v>
       </c>
       <c r="M153">
-        <v>38.26202706544941</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>62.28075385563474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.772432804107666</v>
+        <v>0.7891567349433899</v>
       </c>
       <c r="C154">
-        <v>0.7785113453865051</v>
+        <v>0.797614574432373</v>
       </c>
       <c r="D154">
-        <v>0.7639885544776917</v>
+        <v>0.7852021455764771</v>
       </c>
       <c r="E154">
-        <v>0.7750182151794434</v>
+        <v>0.7941214442253113</v>
       </c>
       <c r="F154">
-        <v>14604768</v>
+        <v>5065600</v>
       </c>
       <c r="G154">
-        <v>0.7878048588765834</v>
+        <v>0.7750217832149238</v>
       </c>
       <c r="H154">
-        <v>0.7797235995531082</v>
+        <v>0.7712450474500656</v>
       </c>
       <c r="I154">
-        <v>0.7900016168753307</v>
+        <v>0.7578297793865204</v>
       </c>
       <c r="J154">
-        <v>0.874589088190001</v>
+        <v>0.8130990131560902</v>
       </c>
       <c r="L154">
-        <v>39.0784491585456</v>
+        <v>67.80213581721655</v>
       </c>
       <c r="M154">
-        <v>39.87498810228806</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>64.37624296650984</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.775012731552124</v>
+        <v>0.794102668762207</v>
       </c>
       <c r="C155">
-        <v>0.7753412127494812</v>
+        <v>0.794102668762207</v>
       </c>
       <c r="D155">
-        <v>0.7513493299484253</v>
+        <v>0.7858781814575195</v>
       </c>
       <c r="E155">
-        <v>0.7646562457084656</v>
+        <v>0.7861680388450623</v>
       </c>
       <c r="F155">
-        <v>19945376</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.7857004394976635</v>
+        <v>0.7760350791813</v>
       </c>
       <c r="H155">
-        <v>0.77908755838871</v>
+        <v>0.7739372283220292</v>
       </c>
       <c r="I155">
-        <v>0.787544192870458</v>
+        <v>0.7599000334739685</v>
       </c>
       <c r="J155">
-        <v>0.8731330240511728</v>
+        <v>0.8127423115095865</v>
       </c>
       <c r="L155">
-        <v>32.00540204824885</v>
+        <v>57.28136788032855</v>
       </c>
       <c r="M155">
-        <v>35.55552162213471</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>58.49414605245709</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.7644558548927307</v>
+        <v>0.7861830592155457</v>
       </c>
       <c r="C156">
-        <v>0.7759367227554321</v>
+        <v>0.7918843626976013</v>
       </c>
       <c r="D156">
-        <v>0.7498625516891479</v>
+        <v>0.7837738990783691</v>
       </c>
       <c r="E156">
-        <v>0.760784387588501</v>
+        <v>0.7848780751228333</v>
       </c>
       <c r="F156">
-        <v>29881952</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>0.7834353438695578</v>
+        <v>0.7768389879032576</v>
       </c>
       <c r="H156">
-        <v>0.7778289943933487</v>
+        <v>0.7763393640518188</v>
       </c>
       <c r="I156">
-        <v>0.7850655396779378</v>
+        <v>0.7614309449990591</v>
       </c>
       <c r="J156">
-        <v>0.8716449626410712</v>
+        <v>0.8123732487759873</v>
       </c>
       <c r="L156">
-        <v>29.74244870251562</v>
+        <v>55.70423183841243</v>
       </c>
       <c r="M156">
-        <v>34.07037849564588</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>57.57528112125137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.7608360648155212</v>
+        <v>0.7848759889602661</v>
       </c>
       <c r="C157">
-        <v>0.7628534436225891</v>
+        <v>0.7879707813262939</v>
       </c>
       <c r="D157">
-        <v>0.7366510629653931</v>
+        <v>0.7750526666641235</v>
       </c>
       <c r="E157">
-        <v>0.7425321340560913</v>
+        <v>0.7872477769851685</v>
       </c>
       <c r="F157">
-        <v>54301856</v>
+        <v>758528</v>
       </c>
       <c r="G157">
-        <v>0.7797168702501518</v>
+        <v>0.7777852414561586</v>
       </c>
       <c r="H157">
-        <v>0.7752323180437088</v>
+        <v>0.7790647983551026</v>
       </c>
       <c r="I157">
-        <v>0.7827091038227081</v>
+        <v>0.7633178194363912</v>
       </c>
       <c r="J157">
-        <v>0.8699348589512039</v>
+        <v>0.8120404610701486</v>
       </c>
       <c r="L157">
-        <v>21.63127078513318</v>
+        <v>58.08903309650639</v>
       </c>
       <c r="M157">
-        <v>28.10966025891014</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>58.85397919085747</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.7426639199256897</v>
+        <v>0.787920355796814</v>
       </c>
       <c r="C158">
-        <v>0.757850706577301</v>
+        <v>0.8100855350494385</v>
       </c>
       <c r="D158">
-        <v>0.7426091432571411</v>
+        <v>0.787920355796814</v>
       </c>
       <c r="E158">
-        <v>0.7453902363777161</v>
+        <v>0.806355893611908</v>
       </c>
       <c r="F158">
-        <v>32658560</v>
+        <v>45603792</v>
       </c>
       <c r="G158">
-        <v>0.7765962671708395</v>
+        <v>0.7803825734703176</v>
       </c>
       <c r="H158">
-        <v>0.7737568140029907</v>
+        <v>0.7817814648151398</v>
       </c>
       <c r="I158">
-        <v>0.7805787801742554</v>
+        <v>0.7658853550752004</v>
       </c>
       <c r="J158">
-        <v>0.868285261301224</v>
+        <v>0.8119651687859335</v>
       </c>
       <c r="L158">
-        <v>25.22367443900692</v>
+        <v>71.84140550364192</v>
       </c>
       <c r="M158">
-        <v>30.16986545019956</v>
-      </c>
-      <c r="N158" t="s">
+        <v>67.3892714204258</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.7457094192504883</v>
+        <v>0.8063161969184875</v>
       </c>
       <c r="C159">
-        <v>0.759171724319458</v>
+        <v>0.8152707815170288</v>
       </c>
       <c r="D159">
-        <v>0.7455147504806519</v>
+        <v>0.8052325248718262</v>
       </c>
       <c r="E159">
-        <v>0.7572835683822632</v>
+        <v>0.8132815957069397</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>23351904</v>
       </c>
       <c r="G159">
-        <v>0.774840567280969</v>
+        <v>0.7833733936736469</v>
       </c>
       <c r="H159">
-        <v>0.7737041175365448</v>
+        <v>0.7847256898880005</v>
       </c>
       <c r="I159">
-        <v>0.7788694202899933</v>
+        <v>0.7683823923269908</v>
       </c>
       <c r="J159">
-        <v>0.8668150402029596</v>
+        <v>0.8119826049040926</v>
       </c>
       <c r="L159">
-        <v>38.43520302315439</v>
+        <v>75.16435562421489</v>
       </c>
       <c r="M159">
-        <v>38.11718142847919</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>69.83196079932267</v>
+      </c>
+      <c r="O159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.7572168111801147</v>
+        <v>0.8131733536720276</v>
       </c>
       <c r="C160">
-        <v>0.7633376121520996</v>
+        <v>0.8182113170623779</v>
       </c>
       <c r="D160">
-        <v>0.7443134188652039</v>
+        <v>0.8076428174972534</v>
       </c>
       <c r="E160">
-        <v>0.7448561787605286</v>
+        <v>0.8089048862457275</v>
       </c>
       <c r="F160">
-        <v>5281248</v>
+        <v>8856992</v>
       </c>
       <c r="G160">
-        <v>0.7721147137791107</v>
+        <v>0.785694438452927</v>
       </c>
       <c r="H160">
-        <v>0.7729043453931809</v>
+        <v>0.7872964769601822</v>
       </c>
       <c r="I160">
-        <v>0.776417754093806</v>
+        <v>0.771007376909256</v>
       </c>
       <c r="J160">
-        <v>0.8651996910447818</v>
+        <v>0.8119418404185513</v>
       </c>
       <c r="L160">
-        <v>31.82535972154378</v>
+        <v>69.34636541656997</v>
       </c>
       <c r="M160">
-        <v>33.78980793747602</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>66.44478871419253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.744964599609375</v>
+        <v>0.8087892532348633</v>
       </c>
       <c r="C161">
-        <v>0.7479580640792847</v>
+        <v>0.8114883303642273</v>
       </c>
       <c r="D161">
-        <v>0.7069292068481445</v>
+        <v>0.8047559261322021</v>
       </c>
       <c r="E161">
-        <v>0.7105949521064758</v>
+        <v>0.808329701423645</v>
       </c>
       <c r="F161">
-        <v>71023584</v>
+        <v>17191968</v>
       </c>
       <c r="G161">
-        <v>0.7665220081725075</v>
+        <v>0.7877521896320832</v>
       </c>
       <c r="H161">
-        <v>0.7702568799257279</v>
+        <v>0.7897575974464417</v>
       </c>
       <c r="I161">
-        <v>0.773192415634791</v>
+        <v>0.7735796411832173</v>
       </c>
       <c r="J161">
-        <v>0.8631519461581817</v>
+        <v>0.8118939975179565</v>
       </c>
       <c r="L161">
-        <v>20.7550248538434</v>
+        <v>68.56175298947379</v>
       </c>
       <c r="M161">
-        <v>25.27166191380064</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>65.9917689208401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.7106848955154419</v>
+        <v>0.8083344697952271</v>
       </c>
       <c r="C162">
-        <v>0.716633141040802</v>
+        <v>0.8148188591003418</v>
       </c>
       <c r="D162">
-        <v>0.6932870745658875</v>
+        <v>0.806079089641571</v>
       </c>
       <c r="E162">
-        <v>0.7146639823913574</v>
+        <v>0.8148188591003418</v>
       </c>
       <c r="F162">
-        <v>36125984</v>
+        <v>3812768</v>
       </c>
       <c r="G162">
-        <v>0.7618076421924029</v>
+        <v>0.7902127959473795</v>
       </c>
       <c r="H162">
-        <v>0.7672958046197891</v>
+        <v>0.7922723263502121</v>
       </c>
       <c r="I162">
-        <v>0.7699662625789643</v>
+        <v>0.7762186586856842</v>
       </c>
       <c r="J162">
-        <v>0.8611852181612701</v>
+        <v>0.811932737406465</v>
       </c>
       <c r="L162">
-        <v>24.27443975675206</v>
+        <v>72.5094859808855</v>
       </c>
       <c r="M162">
-        <v>27.60584833596877</v>
-      </c>
-      <c r="N162" t="s">
+        <v>68.59338371925951</v>
+      </c>
+      <c r="O162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.7149348855018616</v>
+        <v>0.8147457838058472</v>
       </c>
       <c r="C163">
-        <v>0.7188519239425659</v>
+        <v>0.8175515532493591</v>
       </c>
       <c r="D163">
-        <v>0.7050574421882629</v>
+        <v>0.7965731024742126</v>
       </c>
       <c r="E163">
-        <v>0.7054424285888672</v>
+        <v>0.8052965402603149</v>
       </c>
       <c r="F163">
-        <v>5361632</v>
+        <v>22261248</v>
       </c>
       <c r="G163">
-        <v>0.7566835318648087</v>
+        <v>0.7915840454303736</v>
       </c>
       <c r="H163">
-        <v>0.7637236416339874</v>
+        <v>0.7946631073951721</v>
       </c>
       <c r="I163">
-        <v>0.7675138215223948</v>
+        <v>0.7790766000747681</v>
       </c>
       <c r="J163">
-        <v>0.8591223997563378</v>
+        <v>0.8118448407555225</v>
       </c>
       <c r="L163">
-        <v>21.80539788248626</v>
+        <v>60.05928122049971</v>
       </c>
       <c r="M163">
-        <v>25.65041725312504</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>61.19534782105432</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.7053582668304443</v>
+        <v>0.8055261969566345</v>
       </c>
       <c r="C164">
-        <v>0.7250022888183594</v>
+        <v>0.8211673498153687</v>
       </c>
       <c r="D164">
-        <v>0.7046474814414978</v>
+        <v>0.8055261969566345</v>
       </c>
       <c r="E164">
-        <v>0.7241225838661194</v>
+        <v>0.8133954405784607</v>
       </c>
       <c r="F164">
-        <v>1996288</v>
+        <v>816416</v>
       </c>
       <c r="G164">
-        <v>0.7537234456831097</v>
+        <v>0.7935668995347451</v>
       </c>
       <c r="H164">
-        <v>0.761188018321991</v>
+        <v>0.7970603942871094</v>
       </c>
       <c r="I164">
-        <v>0.7654932896296184</v>
+        <v>0.7817859252293905</v>
       </c>
       <c r="J164">
-        <v>0.8573343227246792</v>
+        <v>0.8118653785015217</v>
       </c>
       <c r="L164">
-        <v>36.51990468909078</v>
+        <v>65.69528572015565</v>
       </c>
       <c r="M164">
-        <v>35.6016566212533</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>64.68411742067656</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.7241731286048889</v>
+        <v>0.8134303689002991</v>
       </c>
       <c r="C165">
-        <v>0.7289488911628723</v>
+        <v>0.8172124624252319</v>
       </c>
       <c r="D165">
-        <v>0.7164214849472046</v>
+        <v>0.7973995804786682</v>
       </c>
       <c r="E165">
-        <v>0.7168525457382202</v>
+        <v>0.7995392680168152</v>
       </c>
       <c r="F165">
-        <v>6237280</v>
+        <v>8472256</v>
       </c>
       <c r="G165">
-        <v>0.7503715456881197</v>
+        <v>0.7941098421240242</v>
       </c>
       <c r="H165">
-        <v>0.7582064241170883</v>
+        <v>0.7982315272092819</v>
       </c>
       <c r="I165">
-        <v>0.7634758055210114</v>
+        <v>0.7840264201164245</v>
       </c>
       <c r="J165">
-        <v>0.8554736369367792</v>
+        <v>0.8117021187600025</v>
       </c>
       <c r="L165">
-        <v>33.7400423581095</v>
+        <v>51.66359940630763</v>
       </c>
       <c r="M165">
-        <v>33.71059390946346</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>55.49190518865153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.7168074250221252</v>
+        <v>0.7998180389404297</v>
       </c>
       <c r="C166">
-        <v>0.7280101776123047</v>
+        <v>0.812839150428772</v>
       </c>
       <c r="D166">
-        <v>0.7166125774383545</v>
+        <v>0.7923579812049866</v>
       </c>
       <c r="E166">
-        <v>0.7240604162216187</v>
+        <v>0.8110162019729614</v>
       </c>
       <c r="F166">
-        <v>3267296</v>
+        <v>16591712</v>
       </c>
       <c r="G166">
-        <v>0.7479796248275287</v>
+        <v>0.7956467839284731</v>
       </c>
       <c r="H166">
-        <v>0.7551957935094833</v>
+        <v>0.799609300494194</v>
       </c>
       <c r="I166">
-        <v>0.761412630478541</v>
+        <v>0.7864991148312886</v>
       </c>
       <c r="J166">
-        <v>0.8537330644769758</v>
+        <v>0.8116930337694458</v>
       </c>
       <c r="L166">
-        <v>38.92538213810282</v>
+        <v>59.68696033002796</v>
       </c>
       <c r="M166">
-        <v>37.26835956035018</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>60.49912221422196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.7240866422653198</v>
+        <v>0.8109318017959595</v>
       </c>
       <c r="C167">
-        <v>0.7448761463165283</v>
+        <v>0.8291881680488586</v>
       </c>
       <c r="D167">
-        <v>0.7234331965446472</v>
+        <v>0.804746150970459</v>
       </c>
       <c r="E167">
-        <v>0.7389507293701172</v>
+        <v>0.8288658261299133</v>
       </c>
       <c r="F167">
-        <v>2468896</v>
+        <v>41876416</v>
       </c>
       <c r="G167">
-        <v>0.7471588161495821</v>
+        <v>0.7986666968558768</v>
       </c>
       <c r="H167">
-        <v>0.7526823252439498</v>
+        <v>0.8016591995954514</v>
       </c>
       <c r="I167">
-        <v>0.7595621327559153</v>
+        <v>0.7897033393383026</v>
       </c>
       <c r="J167">
-        <v>0.852212768647746</v>
+        <v>0.8119204879728957</v>
       </c>
       <c r="L167">
-        <v>48.32400627519527</v>
+        <v>68.75993448423607</v>
       </c>
       <c r="M167">
-        <v>43.95972856389043</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>66.7620756480097</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.7391049265861511</v>
+        <v>0.8286460638046265</v>
       </c>
       <c r="C168">
-        <v>0.740872323513031</v>
+        <v>0.8327259421348572</v>
       </c>
       <c r="D168">
-        <v>0.7253094911575317</v>
+        <v>0.7986398935317993</v>
       </c>
       <c r="E168">
-        <v>0.7306415438652039</v>
+        <v>0.8028851747512817</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>73929728</v>
       </c>
       <c r="G168">
-        <v>0.7456572459419113</v>
+        <v>0.7990501948463681</v>
       </c>
       <c r="H168">
-        <v>0.7496594041585922</v>
+        <v>0.8018234193325042</v>
       </c>
       <c r="I168">
-        <v>0.7580868403116862</v>
+        <v>0.7913987596829732</v>
       </c>
       <c r="J168">
-        <v>0.8506025537499641</v>
+        <v>0.8118008149500929</v>
       </c>
       <c r="L168">
-        <v>44.06682243193333</v>
+        <v>50.24349589313409</v>
       </c>
       <c r="M168">
-        <v>41.31159660544646</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>53.4725623924148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.7306730151176453</v>
+        <v>0.8030216693878174</v>
       </c>
       <c r="C169">
-        <v>0.7358577251434326</v>
+        <v>0.809190571308136</v>
       </c>
       <c r="D169">
-        <v>0.7248525619506836</v>
+        <v>0.7854166030883789</v>
       </c>
       <c r="E169">
-        <v>0.7293298244476318</v>
+        <v>0.8024694323539734</v>
       </c>
       <c r="F169">
-        <v>3122528</v>
+        <v>29512960</v>
       </c>
       <c r="G169">
-        <v>0.7441729348969768</v>
+        <v>0.7993610346197867</v>
       </c>
       <c r="H169">
-        <v>0.7464921206235886</v>
+        <v>0.8019410073757172</v>
       </c>
       <c r="I169">
-        <v>0.7571199178695679</v>
+        <v>0.7930011709531148</v>
       </c>
       <c r="J169">
-        <v>0.8489962924347014</v>
+        <v>0.8116772204786211</v>
       </c>
       <c r="L169">
-        <v>43.38798778889675</v>
+        <v>50.00109827290483</v>
       </c>
       <c r="M169">
-        <v>40.89280430297927</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>53.28975995920734</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.7294840812683105</v>
+        <v>0.8027355074882507</v>
       </c>
       <c r="C170">
-        <v>0.7394264936447144</v>
+        <v>0.8109042644500732</v>
       </c>
       <c r="D170">
-        <v>0.7245655655860901</v>
+        <v>0.7988150119781494</v>
       </c>
       <c r="E170">
-        <v>0.7383704781532288</v>
+        <v>0.8040711879730225</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>7282400</v>
       </c>
       <c r="G170">
-        <v>0.7436454388293633</v>
+        <v>0.7997892303791717</v>
       </c>
       <c r="H170">
-        <v>0.7436361312866211</v>
+        <v>0.8021773099899292</v>
       </c>
       <c r="I170">
-        <v>0.7563705464204152</v>
+        <v>0.7945539057254791</v>
       </c>
       <c r="J170">
-        <v>0.8475310498614369</v>
+        <v>0.8115764783262291</v>
       </c>
       <c r="L170">
-        <v>49.42844707195446</v>
+        <v>51.02520586088699</v>
       </c>
       <c r="M170">
-        <v>45.02902515434356</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>53.9430451600445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.7383787035942078</v>
+        <v>0.8040914535522461</v>
       </c>
       <c r="C171">
-        <v>0.7386022210121155</v>
+        <v>0.8040914535522461</v>
       </c>
       <c r="D171">
-        <v>0.726310133934021</v>
+        <v>0.7810895442962646</v>
       </c>
       <c r="E171">
-        <v>0.730155348777771</v>
+        <v>0.7863582968711853</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>14196576</v>
       </c>
       <c r="G171">
-        <v>0.7424190670064913</v>
+        <v>0.7985682364239002</v>
       </c>
       <c r="H171">
-        <v>0.7404346555471421</v>
+        <v>0.8017648220062256</v>
       </c>
       <c r="I171">
-        <v>0.7552575826644897</v>
+        <v>0.7954622725645701</v>
       </c>
       <c r="J171">
-        <v>0.8459764048139712</v>
+        <v>0.811242462677818</v>
       </c>
       <c r="L171">
-        <v>44.56723915725812</v>
+        <v>40.66341757568492</v>
       </c>
       <c r="M171">
-        <v>42.14307489883194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>46.24115571003889</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.730141282081604</v>
+        <v>0.7864348888397217</v>
       </c>
       <c r="C172">
-        <v>0.7323049902915955</v>
+        <v>0.7910984754562378</v>
       </c>
       <c r="D172">
-        <v>0.7237656116485596</v>
+        <v>0.7661368846893311</v>
       </c>
       <c r="E172">
-        <v>0.7311617732048035</v>
+        <v>0.7722830176353455</v>
       </c>
       <c r="F172">
-        <v>963488</v>
+        <v>17224736</v>
       </c>
       <c r="G172">
-        <v>0.7413956766608832</v>
+        <v>0.796178671079486</v>
       </c>
       <c r="H172">
-        <v>0.737874299287796</v>
+        <v>0.8009838074445724</v>
       </c>
       <c r="I172">
-        <v>0.7538334588209789</v>
+        <v>0.7957208971182506</v>
       </c>
       <c r="J172">
-        <v>0.8444556812164987</v>
+        <v>0.8107264435381826</v>
       </c>
       <c r="L172">
-        <v>45.30855943058652</v>
+        <v>34.41563600224065</v>
       </c>
       <c r="M172">
-        <v>42.62819166001257</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>41.20639646262818</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.7312006950378418</v>
+        <v>0.7722707986831665</v>
       </c>
       <c r="C173">
-        <v>0.7372666597366333</v>
+        <v>0.7812692523002625</v>
       </c>
       <c r="D173">
-        <v>0.724233865737915</v>
+        <v>0.769568145275116</v>
       </c>
       <c r="E173">
-        <v>0.7356483340263367</v>
+        <v>0.7793787121772766</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>0.7408731909668336</v>
+        <v>0.794651402088376</v>
       </c>
       <c r="H173">
-        <v>0.736025795340538</v>
+        <v>0.8004832684993743</v>
       </c>
       <c r="I173">
-        <v>0.7524588803450266</v>
+        <v>0.7964508235454559</v>
       </c>
       <c r="J173">
-        <v>0.8430145243000727</v>
+        <v>0.8103112417983031</v>
       </c>
       <c r="L173">
-        <v>48.74612496654844</v>
+        <v>39.67251072315906</v>
       </c>
       <c r="M173">
-        <v>44.84826432738523</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>44.48780999501739</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.7356778979301453</v>
+        <v>0.7792669534683228</v>
       </c>
       <c r="C174">
-        <v>0.736988365650177</v>
+        <v>0.7857972979545593</v>
       </c>
       <c r="D174">
-        <v>0.7177643775939941</v>
+        <v>0.7786252498626709</v>
       </c>
       <c r="E174">
-        <v>0.7195582985877991</v>
+        <v>0.7809749245643616</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0.7389354734778304</v>
+        <v>0.7934080859498293</v>
       </c>
       <c r="H174">
-        <v>0.7332527995109558</v>
+        <v>0.7998259425163269</v>
       </c>
       <c r="I174">
-        <v>0.750616321961085</v>
+        <v>0.7969683309396108</v>
       </c>
       <c r="J174">
-        <v>0.8413793425025592</v>
+        <v>0.8099226813051383</v>
       </c>
       <c r="L174">
-        <v>38.88530378224726</v>
+        <v>40.87192535101749</v>
       </c>
       <c r="M174">
-        <v>39.01714109562164</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>45.22838134974069</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.7194842100143433</v>
+        <v>0.7808893322944641</v>
       </c>
       <c r="C175">
-        <v>0.7331962585449219</v>
+        <v>0.7996360063552856</v>
       </c>
       <c r="D175">
-        <v>0.7180178165435791</v>
+        <v>0.7803199887275696</v>
       </c>
       <c r="E175">
-        <v>0.7321156859397888</v>
+        <v>0.7936469912528992</v>
       </c>
       <c r="F175">
-        <v>251024</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>0.7383154927925539</v>
+        <v>0.7934298046137447</v>
       </c>
       <c r="H175">
-        <v>0.731625771522522</v>
+        <v>0.8001998901367188</v>
       </c>
       <c r="I175">
-        <v>0.7491373638312022</v>
+        <v>0.7975526769955953</v>
       </c>
       <c r="J175">
-        <v>0.8399321417533834</v>
+        <v>0.8097071092514663</v>
       </c>
       <c r="L175">
-        <v>48.10277760866339</v>
+        <v>49.7879513537664</v>
       </c>
       <c r="M175">
-        <v>45.02473895039023</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>50.83586953785006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.7322178483009338</v>
+        <v>0.7936654686927795</v>
       </c>
       <c r="C176">
-        <v>0.7337536215782166</v>
+        <v>0.8136535882949829</v>
       </c>
       <c r="D176">
-        <v>0.7284735441207886</v>
+        <v>0.7892842292785645</v>
       </c>
       <c r="E176">
-        <v>0.7323244214057922</v>
+        <v>0.8118545413017273</v>
       </c>
       <c r="F176">
-        <v>3529168</v>
+        <v>8624768</v>
       </c>
       <c r="G176">
-        <v>0.7377708499392119</v>
+        <v>0.7951047806762885</v>
       </c>
       <c r="H176">
-        <v>0.7302027732133866</v>
+        <v>0.8015487134456635</v>
       </c>
       <c r="I176">
-        <v>0.747405743598938</v>
+        <v>0.7984991371631622</v>
       </c>
       <c r="J176">
-        <v>0.8385068739342101</v>
+        <v>0.8097355520600791</v>
       </c>
       <c r="L176">
-        <v>48.24873855595131</v>
+        <v>59.62831321509209</v>
       </c>
       <c r="M176">
-        <v>45.12151698746162</v>
+        <v>57.55920857124867</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7058,37 +7049,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.7322330474853516</v>
+        <v>0.811723530292511</v>
       </c>
       <c r="C177">
-        <v>0.73885178565979</v>
+        <v>0.8160194158554077</v>
       </c>
       <c r="D177">
-        <v>0.7275215983390808</v>
+        <v>0.8048399090766907</v>
       </c>
       <c r="E177">
-        <v>0.7368353605270386</v>
+        <v>0.8109667301177979</v>
       </c>
       <c r="F177">
-        <v>3004160</v>
+        <v>1852480</v>
       </c>
       <c r="G177">
-        <v>0.7376858054471961</v>
+        <v>0.7965467760800621</v>
       </c>
       <c r="H177">
-        <v>0.7299179345369339</v>
+        <v>0.802734661102295</v>
       </c>
       <c r="I177">
-        <v>0.7456595857938131</v>
+        <v>0.7992691000302633</v>
       </c>
       <c r="J177">
-        <v>0.8371602313725257</v>
+        <v>0.8097518590542211</v>
       </c>
       <c r="L177">
-        <v>51.56090263712139</v>
+        <v>58.99410282789093</v>
       </c>
       <c r="M177">
-        <v>47.28139308324455</v>
+        <v>57.14881770922585</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7096,37 +7087,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.7368234992027283</v>
+        <v>0.8110666871070862</v>
       </c>
       <c r="C178">
-        <v>0.7385374903678894</v>
+        <v>0.8169942498207092</v>
       </c>
       <c r="D178">
-        <v>0.7322714924812317</v>
+        <v>0.8069827556610107</v>
       </c>
       <c r="E178">
-        <v>0.7327390909194946</v>
+        <v>0.8071442246437073</v>
       </c>
       <c r="F178">
-        <v>11115968</v>
+        <v>3361920</v>
       </c>
       <c r="G178">
-        <v>0.7372361041264959</v>
+        <v>0.7975101804949388</v>
       </c>
       <c r="H178">
-        <v>0.7292853772640229</v>
+        <v>0.8027740776538849</v>
       </c>
       <c r="I178">
-        <v>0.7437142233053843</v>
+        <v>0.7995205481847127</v>
       </c>
       <c r="J178">
-        <v>0.8357771699095717</v>
+        <v>0.8097173208501084</v>
       </c>
       <c r="L178">
-        <v>48.39658747316448</v>
+        <v>56.1037380791484</v>
       </c>
       <c r="M178">
-        <v>45.52904051735596</v>
+        <v>55.31997224526737</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7134,37 +7125,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.7327504754066467</v>
+        <v>0.8070826530456543</v>
       </c>
       <c r="C179">
-        <v>0.7524216175079346</v>
+        <v>0.8218079209327698</v>
       </c>
       <c r="D179">
-        <v>0.7327079176902771</v>
+        <v>0.8066036105155945</v>
       </c>
       <c r="E179">
-        <v>0.7520225644111633</v>
+        <v>0.8189302086830139</v>
       </c>
       <c r="F179">
-        <v>14753808</v>
+        <v>16315552</v>
       </c>
       <c r="G179">
-        <v>0.7385803277887384</v>
+        <v>0.7994574557847638</v>
       </c>
       <c r="H179">
-        <v>0.7290223270654679</v>
+        <v>0.8030565083026886</v>
       </c>
       <c r="I179">
-        <v>0.7423591256141663</v>
+        <v>0.8001476327578226</v>
       </c>
       <c r="J179">
-        <v>0.834667837386414</v>
+        <v>0.8098393458545178</v>
       </c>
       <c r="L179">
-        <v>61.05458070562791</v>
+        <v>62.48013788368396</v>
       </c>
       <c r="M179">
-        <v>54.1449280186591</v>
+        <v>59.61166055299626</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7172,37 +7163,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.7520033717155457</v>
+        <v>0.8189511299133301</v>
       </c>
       <c r="C180">
-        <v>0.7543970942497253</v>
+        <v>0.8193828463554382</v>
       </c>
       <c r="D180">
-        <v>0.7457355260848999</v>
+        <v>0.8109451532363892</v>
       </c>
       <c r="E180">
-        <v>0.7543970942497253</v>
+        <v>0.8111310601234436</v>
       </c>
       <c r="F180">
-        <v>8700192</v>
+        <v>1873920</v>
       </c>
       <c r="G180">
-        <v>0.7400182156488281</v>
+        <v>0.8005186925428256</v>
       </c>
       <c r="H180">
-        <v>0.7294993728399277</v>
+        <v>0.8031678169965744</v>
       </c>
       <c r="I180">
-        <v>0.7409893532594045</v>
+        <v>0.8005404969056448</v>
       </c>
       <c r="J180">
-        <v>0.833604648735597</v>
+        <v>0.8098564546527818</v>
       </c>
       <c r="L180">
-        <v>62.33447855572741</v>
+        <v>56.38294892532769</v>
       </c>
       <c r="M180">
-        <v>55.08700004600922</v>
+        <v>55.79259323017671</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7210,37 +7201,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.7544138431549072</v>
+        <v>0.8111791610717773</v>
       </c>
       <c r="C181">
-        <v>0.7592720985412598</v>
+        <v>0.8123660683631897</v>
       </c>
       <c r="D181">
-        <v>0.7541996240615845</v>
+        <v>0.7965095043182373</v>
       </c>
       <c r="E181">
-        <v>0.7574891448020935</v>
+        <v>0.8085306286811829</v>
       </c>
       <c r="F181">
-        <v>5282512</v>
+        <v>10864128</v>
       </c>
       <c r="G181">
-        <v>0.7416064819354885</v>
+        <v>0.8012470503735853</v>
       </c>
       <c r="H181">
-        <v>0.7318440824747086</v>
+        <v>0.8031778633594513</v>
       </c>
       <c r="I181">
-        <v>0.7397661626338958</v>
+        <v>0.8010045826435089</v>
       </c>
       <c r="J181">
-        <v>0.8325964963656169</v>
+        <v>0.8098388940438865</v>
       </c>
       <c r="L181">
-        <v>64.06454791777446</v>
+        <v>54.39194108165225</v>
       </c>
       <c r="M181">
-        <v>56.34472899004001</v>
+        <v>54.53798514295801</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7248,37 +7239,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.7574891448020935</v>
+        <v>0.8085193634033203</v>
       </c>
       <c r="C182">
-        <v>0.7595637440681458</v>
+        <v>0.8115876913070679</v>
       </c>
       <c r="D182">
-        <v>0.7547526955604553</v>
+        <v>0.8074175119400024</v>
       </c>
       <c r="E182">
-        <v>0.7564742565155029</v>
+        <v>0.8074175119400024</v>
       </c>
       <c r="F182">
-        <v>1437040</v>
+        <v>1611328</v>
       </c>
       <c r="G182">
-        <v>0.7429580978063989</v>
+        <v>0.8018080014250778</v>
       </c>
       <c r="H182">
-        <v>0.7339345961809158</v>
+        <v>0.8028077960014344</v>
       </c>
       <c r="I182">
-        <v>0.7389030079046885</v>
+        <v>0.8016550560792287</v>
       </c>
       <c r="J182">
-        <v>0.8315882547781983</v>
+        <v>0.8098068227577424</v>
       </c>
       <c r="L182">
-        <v>62.99609028796418</v>
+        <v>53.48247911202877</v>
       </c>
       <c r="M182">
-        <v>55.79246480865539</v>
+        <v>53.97844417863062</v>
       </c>
     </row>
   </sheetData>
